--- a/Project Documentation/GANTT Chart for Major.xlsx
+++ b/Project Documentation/GANTT Chart for Major.xlsx
@@ -5,19 +5,19 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://saintaugsydney-my.sharepoint.com/personal/fong_a_saintaug_nsw_edu_au/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\converge\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FDB669A-A5D7-4244-A949-D2EF5E96111C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204CC944-DD33-4366-87E7-B7E44E1DF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2006-2018 Vertex42 LLC"</definedName>
@@ -426,7 +426,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>WBS</t>
   </si>
@@ -464,26 +464,94 @@
     <t>Theory Work</t>
   </si>
   <si>
-    <t>Your App Idea</t>
+    <t>Gantt Chart</t>
   </si>
   <si>
-    <t>Template GANTT</t>
+    <t>Converge Business Blockchain</t>
   </si>
   <si>
-    <t>Harry</t>
+    <t>Alex Greig</t>
+  </si>
+  <si>
+    <t>Research and Idea Generation</t>
+  </si>
+  <si>
+    <t>Generation of Ideas and final selection of Idea. Research surrounding the technologies that would facilitate the developent of the software solution and the way in which the project could be completed.</t>
+  </si>
+  <si>
+    <t>Design and Project Documentation</t>
+  </si>
+  <si>
+    <t>Issues relative to the program</t>
+  </si>
+  <si>
+    <t>Problem statement and envisioned solution and how it will function.</t>
+  </si>
+  <si>
+    <t>Interface Design</t>
+  </si>
+  <si>
+    <t>Quality Assurance Criteria</t>
+  </si>
+  <si>
+    <t>Feasibility Study</t>
+  </si>
+  <si>
+    <t>Algorithms</t>
+  </si>
+  <si>
+    <t>Logbook</t>
+  </si>
+  <si>
+    <t>Showcase Video</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Testing &amp; Meetings with Clients</t>
+  </si>
+  <si>
+    <t>Modular and Systematic testing of software</t>
+  </si>
+  <si>
+    <t>Develop underlying blockchain using substrate framwork. Making sure WASM runtime, RPC Calls, P2P Networking, Consensus and storage modules work in unison to create the business blockchain</t>
+  </si>
+  <si>
+    <t>Develop the Frontend of the system using ReactJS, Webassembly and Remote Procedure Calls to access the blockchain from the client. Create a html, css and javascript webfront that can be accessed by clients to manage transactions.</t>
+  </si>
+  <si>
+    <t>Ability for Businesses to mint and trade non-fungiable tokens which are digital representations of non-fungiable assets in physical world. These could be contracts, invoices, labour with certain terms.</t>
+  </si>
+  <si>
+    <t>Ability for Businesses to mint fungiable tokens which are digital representations of fungiable assets in the physical world. This type of tokenisation would be heavily used in supply chain managements and for supply chain partner transactions. Assets could include computers, diamonds, gold or even produce like apples.</t>
+  </si>
+  <si>
+    <t>Implementation of Procure-to-Pay and Quote to cash. Utilising the intrinsic logic of the blockchain runtime and smart contracts to facilitate automated trading.</t>
+  </si>
+  <si>
+    <t>Automated document creation or statistics that show accounts payable and recieveable, also providing documents aiding in auditing and the complex taxation processes.</t>
+  </si>
+  <si>
+    <t>Zero Knowledge Proofs to make the transactions more private and private information isn't widely shared across the blockchain.</t>
+  </si>
+  <si>
+    <t>Meeting with CFO Mr Fong for continuous communication surrounding project timeline.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ \(dddd\)"/>
     <numFmt numFmtId="165" formatCode="ddd\ m/dd/yy"/>
     <numFmt numFmtId="166" formatCode="d"/>
     <numFmt numFmtId="167" formatCode="d\ mmm\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="d/m/yyyy\ \(dddd\)"/>
+    <numFmt numFmtId="169" formatCode="ddd\ dd/m/yy"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -763,6 +831,13 @@
       <color theme="1" tint="0.34998626667073579"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="24">
@@ -1184,7 +1259,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1292,22 +1367,10 @@
     <xf numFmtId="1" fontId="37" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="35" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1371,6 +1434,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="35" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="30" fillId="21" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="30" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="35" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="30" fillId="21" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1396,7 +1478,7 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -1447,7 +1529,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="6">
     <dxf>
       <border>
         <left style="thin">
@@ -1461,20 +1543,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1485,20 +1553,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1639,8 +1693,8 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>80433</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>529080</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1693,13 +1747,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>99060</xdr:colOff>
+          <xdr:colOff>97971</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>119743</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>106680</xdr:colOff>
+          <xdr:colOff>108857</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -2031,73 +2085,73 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CB29"/>
+  <dimension ref="A1:CB31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="6.84375" style="5" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.84375" style="6" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="1.88671875" style="1" customWidth="1"/>
-    <col min="11" max="66" width="2.44140625" style="1" customWidth="1"/>
-    <col min="67" max="80" width="2.44140625" style="3" customWidth="1"/>
-    <col min="81" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="6.765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.4609375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.84375" style="1" customWidth="1"/>
+    <col min="11" max="66" width="2.4609375" style="1" customWidth="1"/>
+    <col min="67" max="80" width="2.4609375" style="3" customWidth="1"/>
+    <col min="81" max="16384" width="9.07421875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>13</v>
+    <row r="1" spans="1:80" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
-      <c r="I1" s="68"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
+      <c r="I1" s="64"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
     </row>
-    <row r="2" spans="1:80" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>12</v>
+    <row r="2" spans="1:80" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="67" t="s">
+        <v>13</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:80" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:80" ht="14.15" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="11"/>
       <c r="C3" s="4"/>
@@ -2123,245 +2177,245 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
-      <c r="BO3" s="70"/>
+      <c r="BO3" s="66"/>
     </row>
-    <row r="4" spans="1:80" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="53" t="s">
+    <row r="4" spans="1:80" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="79">
-        <v>44676</v>
-      </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="53" t="s">
+      <c r="C4" s="81">
+        <v>44661</v>
+      </c>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="63">
         <v>1</v>
       </c>
-      <c r="I4" s="51"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="71" t="str">
+      <c r="K4" s="73" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="71" t="str">
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="73" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="71" t="str">
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="73" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="73"/>
-      <c r="AF4" s="71" t="str">
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="73" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="73"/>
-      <c r="AM4" s="71" t="str">
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="74"/>
+      <c r="AK4" s="74"/>
+      <c r="AL4" s="75"/>
+      <c r="AM4" s="73" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="72"/>
-      <c r="AO4" s="72"/>
-      <c r="AP4" s="72"/>
-      <c r="AQ4" s="72"/>
-      <c r="AR4" s="72"/>
-      <c r="AS4" s="73"/>
-      <c r="AT4" s="71" t="str">
+      <c r="AN4" s="74"/>
+      <c r="AO4" s="74"/>
+      <c r="AP4" s="74"/>
+      <c r="AQ4" s="74"/>
+      <c r="AR4" s="74"/>
+      <c r="AS4" s="75"/>
+      <c r="AT4" s="73" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="72"/>
-      <c r="AV4" s="72"/>
-      <c r="AW4" s="72"/>
-      <c r="AX4" s="72"/>
-      <c r="AY4" s="72"/>
-      <c r="AZ4" s="73"/>
-      <c r="BA4" s="71" t="str">
+      <c r="AU4" s="74"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="75"/>
+      <c r="BA4" s="73" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="72"/>
-      <c r="BC4" s="72"/>
-      <c r="BD4" s="72"/>
-      <c r="BE4" s="72"/>
-      <c r="BF4" s="72"/>
-      <c r="BG4" s="73"/>
-      <c r="BH4" s="71" t="str">
+      <c r="BB4" s="74"/>
+      <c r="BC4" s="74"/>
+      <c r="BD4" s="74"/>
+      <c r="BE4" s="74"/>
+      <c r="BF4" s="74"/>
+      <c r="BG4" s="75"/>
+      <c r="BH4" s="73" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="72"/>
-      <c r="BJ4" s="72"/>
-      <c r="BK4" s="72"/>
-      <c r="BL4" s="72"/>
-      <c r="BM4" s="72"/>
-      <c r="BN4" s="73"/>
-      <c r="BO4" s="71" t="str">
+      <c r="BI4" s="74"/>
+      <c r="BJ4" s="74"/>
+      <c r="BK4" s="74"/>
+      <c r="BL4" s="74"/>
+      <c r="BM4" s="74"/>
+      <c r="BN4" s="75"/>
+      <c r="BO4" s="73" t="str">
         <f>"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BP4" s="72"/>
-      <c r="BQ4" s="72"/>
-      <c r="BR4" s="72"/>
-      <c r="BS4" s="72"/>
-      <c r="BT4" s="72"/>
-      <c r="BU4" s="73"/>
-      <c r="BV4" s="71" t="str">
+      <c r="BP4" s="74"/>
+      <c r="BQ4" s="74"/>
+      <c r="BR4" s="74"/>
+      <c r="BS4" s="74"/>
+      <c r="BT4" s="74"/>
+      <c r="BU4" s="75"/>
+      <c r="BV4" s="73" t="str">
         <f>"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="BW4" s="72"/>
-      <c r="BX4" s="72"/>
-      <c r="BY4" s="72"/>
-      <c r="BZ4" s="72"/>
-      <c r="CA4" s="72"/>
-      <c r="CB4" s="73"/>
+      <c r="BW4" s="74"/>
+      <c r="BX4" s="74"/>
+      <c r="BY4" s="74"/>
+      <c r="BZ4" s="74"/>
+      <c r="CA4" s="74"/>
+      <c r="CB4" s="75"/>
     </row>
-    <row r="5" spans="1:80" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="53" t="s">
+    <row r="5" spans="1:80" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="45"/>
+      <c r="B5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="74">
+      <c r="K5" s="76">
         <f>K6</f>
+        <v>44662</v>
+      </c>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="76">
+        <f>R6</f>
+        <v>44669</v>
+      </c>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="76">
+        <f>Y6</f>
         <v>44676</v>
       </c>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="74">
-        <f>R6</f>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="78"/>
+      <c r="AF5" s="76">
+        <f>AF6</f>
         <v>44683</v>
       </c>
-      <c r="S5" s="75"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="74">
-        <f>Y6</f>
+      <c r="AG5" s="77"/>
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="77"/>
+      <c r="AJ5" s="77"/>
+      <c r="AK5" s="77"/>
+      <c r="AL5" s="78"/>
+      <c r="AM5" s="76">
+        <f>AM6</f>
         <v>44690</v>
       </c>
-      <c r="Z5" s="75"/>
-      <c r="AA5" s="75"/>
-      <c r="AB5" s="75"/>
-      <c r="AC5" s="75"/>
-      <c r="AD5" s="75"/>
-      <c r="AE5" s="76"/>
-      <c r="AF5" s="74">
-        <f>AF6</f>
+      <c r="AN5" s="77"/>
+      <c r="AO5" s="77"/>
+      <c r="AP5" s="77"/>
+      <c r="AQ5" s="77"/>
+      <c r="AR5" s="77"/>
+      <c r="AS5" s="78"/>
+      <c r="AT5" s="76">
+        <f>AT6</f>
         <v>44697</v>
       </c>
-      <c r="AG5" s="75"/>
-      <c r="AH5" s="75"/>
-      <c r="AI5" s="75"/>
-      <c r="AJ5" s="75"/>
-      <c r="AK5" s="75"/>
-      <c r="AL5" s="76"/>
-      <c r="AM5" s="74">
-        <f>AM6</f>
+      <c r="AU5" s="77"/>
+      <c r="AV5" s="77"/>
+      <c r="AW5" s="77"/>
+      <c r="AX5" s="77"/>
+      <c r="AY5" s="77"/>
+      <c r="AZ5" s="78"/>
+      <c r="BA5" s="76">
+        <f>BA6</f>
         <v>44704</v>
       </c>
-      <c r="AN5" s="75"/>
-      <c r="AO5" s="75"/>
-      <c r="AP5" s="75"/>
-      <c r="AQ5" s="75"/>
-      <c r="AR5" s="75"/>
-      <c r="AS5" s="76"/>
-      <c r="AT5" s="74">
-        <f>AT6</f>
+      <c r="BB5" s="77"/>
+      <c r="BC5" s="77"/>
+      <c r="BD5" s="77"/>
+      <c r="BE5" s="77"/>
+      <c r="BF5" s="77"/>
+      <c r="BG5" s="78"/>
+      <c r="BH5" s="76">
+        <f>BH6</f>
         <v>44711</v>
       </c>
-      <c r="AU5" s="75"/>
-      <c r="AV5" s="75"/>
-      <c r="AW5" s="75"/>
-      <c r="AX5" s="75"/>
-      <c r="AY5" s="75"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="74">
-        <f>BA6</f>
+      <c r="BI5" s="77"/>
+      <c r="BJ5" s="77"/>
+      <c r="BK5" s="77"/>
+      <c r="BL5" s="77"/>
+      <c r="BM5" s="77"/>
+      <c r="BN5" s="78"/>
+      <c r="BO5" s="76">
+        <f>BO6</f>
         <v>44718</v>
       </c>
-      <c r="BB5" s="75"/>
-      <c r="BC5" s="75"/>
-      <c r="BD5" s="75"/>
-      <c r="BE5" s="75"/>
-      <c r="BF5" s="75"/>
-      <c r="BG5" s="76"/>
-      <c r="BH5" s="74">
-        <f>BH6</f>
+      <c r="BP5" s="77"/>
+      <c r="BQ5" s="77"/>
+      <c r="BR5" s="77"/>
+      <c r="BS5" s="77"/>
+      <c r="BT5" s="77"/>
+      <c r="BU5" s="78"/>
+      <c r="BV5" s="76">
+        <f>BV6</f>
         <v>44725</v>
       </c>
-      <c r="BI5" s="75"/>
-      <c r="BJ5" s="75"/>
-      <c r="BK5" s="75"/>
-      <c r="BL5" s="75"/>
-      <c r="BM5" s="75"/>
-      <c r="BN5" s="76"/>
-      <c r="BO5" s="74">
-        <f>BO6</f>
-        <v>44732</v>
-      </c>
-      <c r="BP5" s="75"/>
-      <c r="BQ5" s="75"/>
-      <c r="BR5" s="75"/>
-      <c r="BS5" s="75"/>
-      <c r="BT5" s="75"/>
-      <c r="BU5" s="76"/>
-      <c r="BV5" s="74">
-        <f>BV6</f>
-        <v>44739</v>
-      </c>
-      <c r="BW5" s="75"/>
-      <c r="BX5" s="75"/>
-      <c r="BY5" s="75"/>
-      <c r="BZ5" s="75"/>
-      <c r="CA5" s="75"/>
-      <c r="CB5" s="76"/>
+      <c r="BW5" s="77"/>
+      <c r="BX5" s="77"/>
+      <c r="BY5" s="77"/>
+      <c r="BZ5" s="77"/>
+      <c r="CA5" s="77"/>
+      <c r="CB5" s="78"/>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -2374,2591 +2428,2916 @@
       <c r="J6" s="13"/>
       <c r="K6" s="37">
         <f>C4-WEEKDAY(C4,1)+2+7*(H4-1)</f>
-        <v>44676</v>
+        <v>44662</v>
       </c>
       <c r="L6" s="28">
         <f t="shared" ref="L6:AQ6" si="0">K6+1</f>
-        <v>44677</v>
+        <v>44663</v>
       </c>
       <c r="M6" s="28">
         <f t="shared" si="0"/>
-        <v>44678</v>
+        <v>44664</v>
       </c>
       <c r="N6" s="28">
         <f t="shared" si="0"/>
-        <v>44679</v>
+        <v>44665</v>
       </c>
       <c r="O6" s="28">
         <f t="shared" si="0"/>
-        <v>44680</v>
+        <v>44666</v>
       </c>
       <c r="P6" s="28">
         <f t="shared" si="0"/>
-        <v>44681</v>
+        <v>44667</v>
       </c>
       <c r="Q6" s="38">
         <f t="shared" si="0"/>
-        <v>44682</v>
+        <v>44668</v>
       </c>
       <c r="R6" s="37">
         <f t="shared" si="0"/>
-        <v>44683</v>
+        <v>44669</v>
       </c>
       <c r="S6" s="28">
         <f t="shared" si="0"/>
-        <v>44684</v>
+        <v>44670</v>
       </c>
       <c r="T6" s="28">
         <f t="shared" si="0"/>
-        <v>44685</v>
+        <v>44671</v>
       </c>
       <c r="U6" s="28">
         <f t="shared" si="0"/>
-        <v>44686</v>
+        <v>44672</v>
       </c>
       <c r="V6" s="28">
         <f t="shared" si="0"/>
-        <v>44687</v>
+        <v>44673</v>
       </c>
       <c r="W6" s="28">
         <f t="shared" si="0"/>
-        <v>44688</v>
+        <v>44674</v>
       </c>
       <c r="X6" s="38">
         <f t="shared" si="0"/>
-        <v>44689</v>
+        <v>44675</v>
       </c>
       <c r="Y6" s="37">
         <f t="shared" si="0"/>
-        <v>44690</v>
+        <v>44676</v>
       </c>
       <c r="Z6" s="28">
         <f t="shared" si="0"/>
-        <v>44691</v>
+        <v>44677</v>
       </c>
       <c r="AA6" s="28">
         <f t="shared" si="0"/>
-        <v>44692</v>
+        <v>44678</v>
       </c>
       <c r="AB6" s="28">
         <f t="shared" si="0"/>
-        <v>44693</v>
+        <v>44679</v>
       </c>
       <c r="AC6" s="28">
         <f t="shared" si="0"/>
-        <v>44694</v>
+        <v>44680</v>
       </c>
       <c r="AD6" s="28">
         <f t="shared" si="0"/>
-        <v>44695</v>
+        <v>44681</v>
       </c>
       <c r="AE6" s="38">
         <f t="shared" si="0"/>
-        <v>44696</v>
+        <v>44682</v>
       </c>
       <c r="AF6" s="37">
         <f>AE6+1</f>
-        <v>44697</v>
+        <v>44683</v>
       </c>
       <c r="AG6" s="28">
         <f t="shared" si="0"/>
-        <v>44698</v>
+        <v>44684</v>
       </c>
       <c r="AH6" s="28">
         <f t="shared" si="0"/>
-        <v>44699</v>
+        <v>44685</v>
       </c>
       <c r="AI6" s="28">
         <f t="shared" si="0"/>
-        <v>44700</v>
+        <v>44686</v>
       </c>
       <c r="AJ6" s="28">
         <f t="shared" si="0"/>
-        <v>44701</v>
+        <v>44687</v>
       </c>
       <c r="AK6" s="28">
         <f t="shared" si="0"/>
-        <v>44702</v>
+        <v>44688</v>
       </c>
       <c r="AL6" s="38">
         <f t="shared" si="0"/>
-        <v>44703</v>
+        <v>44689</v>
       </c>
       <c r="AM6" s="37">
         <f t="shared" si="0"/>
-        <v>44704</v>
+        <v>44690</v>
       </c>
       <c r="AN6" s="28">
         <f t="shared" si="0"/>
-        <v>44705</v>
+        <v>44691</v>
       </c>
       <c r="AO6" s="28">
         <f t="shared" si="0"/>
-        <v>44706</v>
+        <v>44692</v>
       </c>
       <c r="AP6" s="28">
         <f t="shared" si="0"/>
-        <v>44707</v>
+        <v>44693</v>
       </c>
       <c r="AQ6" s="28">
         <f t="shared" si="0"/>
-        <v>44708</v>
+        <v>44694</v>
       </c>
       <c r="AR6" s="28">
         <f t="shared" ref="AR6:BN6" si="1">AQ6+1</f>
-        <v>44709</v>
+        <v>44695</v>
       </c>
       <c r="AS6" s="38">
         <f t="shared" si="1"/>
-        <v>44710</v>
+        <v>44696</v>
       </c>
       <c r="AT6" s="37">
         <f t="shared" si="1"/>
-        <v>44711</v>
+        <v>44697</v>
       </c>
       <c r="AU6" s="28">
         <f t="shared" si="1"/>
-        <v>44712</v>
+        <v>44698</v>
       </c>
       <c r="AV6" s="28">
         <f t="shared" si="1"/>
-        <v>44713</v>
+        <v>44699</v>
       </c>
       <c r="AW6" s="28">
         <f t="shared" si="1"/>
-        <v>44714</v>
+        <v>44700</v>
       </c>
       <c r="AX6" s="28">
         <f t="shared" si="1"/>
-        <v>44715</v>
+        <v>44701</v>
       </c>
       <c r="AY6" s="28">
         <f t="shared" si="1"/>
-        <v>44716</v>
+        <v>44702</v>
       </c>
       <c r="AZ6" s="38">
         <f t="shared" si="1"/>
-        <v>44717</v>
+        <v>44703</v>
       </c>
       <c r="BA6" s="37">
         <f t="shared" si="1"/>
-        <v>44718</v>
+        <v>44704</v>
       </c>
       <c r="BB6" s="28">
         <f t="shared" si="1"/>
-        <v>44719</v>
+        <v>44705</v>
       </c>
       <c r="BC6" s="28">
         <f t="shared" si="1"/>
-        <v>44720</v>
+        <v>44706</v>
       </c>
       <c r="BD6" s="28">
         <f t="shared" si="1"/>
-        <v>44721</v>
+        <v>44707</v>
       </c>
       <c r="BE6" s="28">
         <f t="shared" si="1"/>
-        <v>44722</v>
+        <v>44708</v>
       </c>
       <c r="BF6" s="28">
         <f t="shared" si="1"/>
-        <v>44723</v>
+        <v>44709</v>
       </c>
       <c r="BG6" s="38">
         <f t="shared" si="1"/>
-        <v>44724</v>
+        <v>44710</v>
       </c>
       <c r="BH6" s="37">
         <f t="shared" si="1"/>
-        <v>44725</v>
+        <v>44711</v>
       </c>
       <c r="BI6" s="28">
         <f t="shared" si="1"/>
-        <v>44726</v>
+        <v>44712</v>
       </c>
       <c r="BJ6" s="28">
         <f t="shared" si="1"/>
-        <v>44727</v>
+        <v>44713</v>
       </c>
       <c r="BK6" s="28">
         <f t="shared" si="1"/>
-        <v>44728</v>
+        <v>44714</v>
       </c>
       <c r="BL6" s="28">
         <f t="shared" si="1"/>
-        <v>44729</v>
+        <v>44715</v>
       </c>
       <c r="BM6" s="28">
         <f t="shared" si="1"/>
-        <v>44730</v>
+        <v>44716</v>
       </c>
       <c r="BN6" s="38">
         <f t="shared" si="1"/>
-        <v>44731</v>
+        <v>44717</v>
       </c>
       <c r="BO6" s="28">
         <f t="shared" ref="BO6" si="2">BN6+1</f>
-        <v>44732</v>
+        <v>44718</v>
       </c>
       <c r="BP6" s="28">
         <f t="shared" ref="BP6" si="3">BO6+1</f>
-        <v>44733</v>
+        <v>44719</v>
       </c>
       <c r="BQ6" s="28">
         <f t="shared" ref="BQ6" si="4">BP6+1</f>
-        <v>44734</v>
+        <v>44720</v>
       </c>
       <c r="BR6" s="28">
         <f t="shared" ref="BR6" si="5">BQ6+1</f>
-        <v>44735</v>
+        <v>44721</v>
       </c>
       <c r="BS6" s="28">
         <f t="shared" ref="BS6" si="6">BR6+1</f>
-        <v>44736</v>
+        <v>44722</v>
       </c>
       <c r="BT6" s="28">
         <f t="shared" ref="BT6" si="7">BS6+1</f>
-        <v>44737</v>
+        <v>44723</v>
       </c>
       <c r="BU6" s="28">
         <f t="shared" ref="BU6" si="8">BT6+1</f>
-        <v>44738</v>
+        <v>44724</v>
       </c>
       <c r="BV6" s="28">
         <f t="shared" ref="BV6" si="9">BU6+1</f>
-        <v>44739</v>
+        <v>44725</v>
       </c>
       <c r="BW6" s="28">
         <f t="shared" ref="BW6" si="10">BV6+1</f>
-        <v>44740</v>
+        <v>44726</v>
       </c>
       <c r="BX6" s="28">
         <f t="shared" ref="BX6" si="11">BW6+1</f>
-        <v>44741</v>
+        <v>44727</v>
       </c>
       <c r="BY6" s="28">
         <f t="shared" ref="BY6" si="12">BX6+1</f>
-        <v>44742</v>
+        <v>44728</v>
       </c>
       <c r="BZ6" s="28">
         <f t="shared" ref="BZ6" si="13">BY6+1</f>
-        <v>44743</v>
+        <v>44729</v>
       </c>
       <c r="CA6" s="28">
         <f t="shared" ref="CA6" si="14">BZ6+1</f>
-        <v>44744</v>
+        <v>44730</v>
       </c>
       <c r="CB6" s="38">
         <f t="shared" ref="CB6" si="15">CA6+1</f>
-        <v>44745</v>
+        <v>44731</v>
       </c>
     </row>
-    <row r="7" spans="1:80" s="63" customFormat="1" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55" t="s">
+    <row r="7" spans="1:80" s="59" customFormat="1" ht="23.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="57" t="s">
+      <c r="I7" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="57"/>
-      <c r="K7" s="60" t="str">
+      <c r="J7" s="53"/>
+      <c r="K7" s="56" t="str">
         <f t="shared" ref="K7:AP7" si="16">CHOOSE(WEEKDAY(K6,1),"S","M","T","W","T","F","S")</f>
         <v>M</v>
       </c>
-      <c r="L7" s="61" t="str">
+      <c r="L7" s="57" t="str">
         <f t="shared" si="16"/>
         <v>T</v>
       </c>
-      <c r="M7" s="61" t="str">
+      <c r="M7" s="57" t="str">
         <f t="shared" si="16"/>
         <v>W</v>
       </c>
-      <c r="N7" s="61" t="str">
+      <c r="N7" s="57" t="str">
         <f t="shared" si="16"/>
         <v>T</v>
       </c>
-      <c r="O7" s="61" t="str">
+      <c r="O7" s="57" t="str">
         <f t="shared" si="16"/>
         <v>F</v>
       </c>
-      <c r="P7" s="61" t="str">
+      <c r="P7" s="57" t="str">
         <f t="shared" si="16"/>
         <v>S</v>
       </c>
-      <c r="Q7" s="62" t="str">
+      <c r="Q7" s="58" t="str">
         <f t="shared" si="16"/>
         <v>S</v>
       </c>
-      <c r="R7" s="60" t="str">
+      <c r="R7" s="56" t="str">
         <f t="shared" si="16"/>
         <v>M</v>
       </c>
-      <c r="S7" s="61" t="str">
+      <c r="S7" s="57" t="str">
         <f t="shared" si="16"/>
         <v>T</v>
       </c>
-      <c r="T7" s="61" t="str">
+      <c r="T7" s="57" t="str">
         <f t="shared" si="16"/>
         <v>W</v>
       </c>
-      <c r="U7" s="61" t="str">
+      <c r="U7" s="57" t="str">
         <f t="shared" si="16"/>
         <v>T</v>
       </c>
-      <c r="V7" s="61" t="str">
+      <c r="V7" s="57" t="str">
         <f t="shared" si="16"/>
         <v>F</v>
       </c>
-      <c r="W7" s="61" t="str">
+      <c r="W7" s="57" t="str">
         <f t="shared" si="16"/>
         <v>S</v>
       </c>
-      <c r="X7" s="62" t="str">
+      <c r="X7" s="58" t="str">
         <f t="shared" si="16"/>
         <v>S</v>
       </c>
-      <c r="Y7" s="60" t="str">
+      <c r="Y7" s="56" t="str">
         <f t="shared" si="16"/>
         <v>M</v>
       </c>
-      <c r="Z7" s="61" t="str">
+      <c r="Z7" s="57" t="str">
         <f t="shared" si="16"/>
         <v>T</v>
       </c>
-      <c r="AA7" s="61" t="str">
+      <c r="AA7" s="57" t="str">
         <f t="shared" si="16"/>
         <v>W</v>
       </c>
-      <c r="AB7" s="61" t="str">
+      <c r="AB7" s="57" t="str">
         <f t="shared" si="16"/>
         <v>T</v>
       </c>
-      <c r="AC7" s="61" t="str">
+      <c r="AC7" s="57" t="str">
         <f t="shared" si="16"/>
         <v>F</v>
       </c>
-      <c r="AD7" s="61" t="str">
+      <c r="AD7" s="57" t="str">
         <f t="shared" si="16"/>
         <v>S</v>
       </c>
-      <c r="AE7" s="62" t="str">
+      <c r="AE7" s="58" t="str">
         <f t="shared" si="16"/>
         <v>S</v>
       </c>
-      <c r="AF7" s="60" t="str">
+      <c r="AF7" s="56" t="str">
         <f t="shared" si="16"/>
         <v>M</v>
       </c>
-      <c r="AG7" s="61" t="str">
+      <c r="AG7" s="57" t="str">
         <f t="shared" si="16"/>
         <v>T</v>
       </c>
-      <c r="AH7" s="61" t="str">
+      <c r="AH7" s="57" t="str">
         <f t="shared" si="16"/>
         <v>W</v>
       </c>
-      <c r="AI7" s="61" t="str">
+      <c r="AI7" s="57" t="str">
         <f t="shared" si="16"/>
         <v>T</v>
       </c>
-      <c r="AJ7" s="61" t="str">
+      <c r="AJ7" s="57" t="str">
         <f t="shared" si="16"/>
         <v>F</v>
       </c>
-      <c r="AK7" s="61" t="str">
+      <c r="AK7" s="57" t="str">
         <f t="shared" si="16"/>
         <v>S</v>
       </c>
-      <c r="AL7" s="62" t="str">
+      <c r="AL7" s="58" t="str">
         <f t="shared" si="16"/>
         <v>S</v>
       </c>
-      <c r="AM7" s="60" t="str">
+      <c r="AM7" s="56" t="str">
         <f t="shared" si="16"/>
         <v>M</v>
       </c>
-      <c r="AN7" s="61" t="str">
+      <c r="AN7" s="57" t="str">
         <f t="shared" si="16"/>
         <v>T</v>
       </c>
-      <c r="AO7" s="61" t="str">
+      <c r="AO7" s="57" t="str">
         <f t="shared" si="16"/>
         <v>W</v>
       </c>
-      <c r="AP7" s="61" t="str">
+      <c r="AP7" s="57" t="str">
         <f t="shared" si="16"/>
         <v>T</v>
       </c>
-      <c r="AQ7" s="61" t="str">
+      <c r="AQ7" s="57" t="str">
         <f t="shared" ref="AQ7:BN7" si="17">CHOOSE(WEEKDAY(AQ6,1),"S","M","T","W","T","F","S")</f>
         <v>F</v>
       </c>
-      <c r="AR7" s="61" t="str">
+      <c r="AR7" s="57" t="str">
         <f t="shared" si="17"/>
         <v>S</v>
       </c>
-      <c r="AS7" s="62" t="str">
+      <c r="AS7" s="58" t="str">
         <f t="shared" si="17"/>
         <v>S</v>
       </c>
-      <c r="AT7" s="60" t="str">
+      <c r="AT7" s="56" t="str">
         <f t="shared" si="17"/>
         <v>M</v>
       </c>
-      <c r="AU7" s="61" t="str">
+      <c r="AU7" s="57" t="str">
         <f t="shared" si="17"/>
         <v>T</v>
       </c>
-      <c r="AV7" s="61" t="str">
+      <c r="AV7" s="57" t="str">
         <f t="shared" si="17"/>
         <v>W</v>
       </c>
-      <c r="AW7" s="61" t="str">
+      <c r="AW7" s="57" t="str">
         <f t="shared" si="17"/>
         <v>T</v>
       </c>
-      <c r="AX7" s="61" t="str">
+      <c r="AX7" s="57" t="str">
         <f t="shared" si="17"/>
         <v>F</v>
       </c>
-      <c r="AY7" s="61" t="str">
+      <c r="AY7" s="57" t="str">
         <f t="shared" si="17"/>
         <v>S</v>
       </c>
-      <c r="AZ7" s="62" t="str">
+      <c r="AZ7" s="58" t="str">
         <f t="shared" si="17"/>
         <v>S</v>
       </c>
-      <c r="BA7" s="60" t="str">
+      <c r="BA7" s="56" t="str">
         <f t="shared" si="17"/>
         <v>M</v>
       </c>
-      <c r="BB7" s="61" t="str">
+      <c r="BB7" s="57" t="str">
         <f t="shared" si="17"/>
         <v>T</v>
       </c>
-      <c r="BC7" s="61" t="str">
+      <c r="BC7" s="57" t="str">
         <f t="shared" si="17"/>
         <v>W</v>
       </c>
-      <c r="BD7" s="61" t="str">
+      <c r="BD7" s="57" t="str">
         <f t="shared" si="17"/>
         <v>T</v>
       </c>
-      <c r="BE7" s="61" t="str">
+      <c r="BE7" s="57" t="str">
         <f t="shared" si="17"/>
         <v>F</v>
       </c>
-      <c r="BF7" s="61" t="str">
+      <c r="BF7" s="57" t="str">
         <f t="shared" si="17"/>
         <v>S</v>
       </c>
-      <c r="BG7" s="62" t="str">
+      <c r="BG7" s="58" t="str">
         <f t="shared" si="17"/>
         <v>S</v>
       </c>
-      <c r="BH7" s="60" t="str">
+      <c r="BH7" s="56" t="str">
         <f t="shared" si="17"/>
         <v>M</v>
       </c>
-      <c r="BI7" s="61" t="str">
+      <c r="BI7" s="57" t="str">
         <f t="shared" si="17"/>
         <v>T</v>
       </c>
-      <c r="BJ7" s="61" t="str">
+      <c r="BJ7" s="57" t="str">
         <f t="shared" si="17"/>
         <v>W</v>
       </c>
-      <c r="BK7" s="61" t="str">
+      <c r="BK7" s="57" t="str">
         <f t="shared" si="17"/>
         <v>T</v>
       </c>
-      <c r="BL7" s="61" t="str">
+      <c r="BL7" s="57" t="str">
         <f t="shared" si="17"/>
         <v>F</v>
       </c>
-      <c r="BM7" s="61" t="str">
+      <c r="BM7" s="57" t="str">
         <f t="shared" si="17"/>
         <v>S</v>
       </c>
-      <c r="BN7" s="62" t="str">
+      <c r="BN7" s="58" t="str">
         <f t="shared" si="17"/>
         <v>S</v>
       </c>
-      <c r="BO7" s="60" t="str">
+      <c r="BO7" s="56" t="str">
         <f t="shared" ref="BO7:BU7" si="18">CHOOSE(WEEKDAY(BO6,1),"S","M","T","W","T","F","S")</f>
         <v>M</v>
       </c>
-      <c r="BP7" s="61" t="str">
+      <c r="BP7" s="57" t="str">
         <f t="shared" si="18"/>
         <v>T</v>
       </c>
-      <c r="BQ7" s="61" t="str">
+      <c r="BQ7" s="57" t="str">
         <f t="shared" si="18"/>
         <v>W</v>
       </c>
-      <c r="BR7" s="61" t="str">
+      <c r="BR7" s="57" t="str">
         <f t="shared" si="18"/>
         <v>T</v>
       </c>
-      <c r="BS7" s="61" t="str">
+      <c r="BS7" s="57" t="str">
         <f t="shared" si="18"/>
         <v>F</v>
       </c>
-      <c r="BT7" s="61" t="str">
+      <c r="BT7" s="57" t="str">
         <f t="shared" si="18"/>
         <v>S</v>
       </c>
-      <c r="BU7" s="62" t="str">
+      <c r="BU7" s="58" t="str">
         <f t="shared" si="18"/>
         <v>S</v>
       </c>
-      <c r="BV7" s="60" t="str">
+      <c r="BV7" s="56" t="str">
         <f t="shared" ref="BV7:CB7" si="19">CHOOSE(WEEKDAY(BV6,1),"S","M","T","W","T","F","S")</f>
         <v>M</v>
       </c>
-      <c r="BW7" s="61" t="str">
+      <c r="BW7" s="57" t="str">
         <f t="shared" si="19"/>
         <v>T</v>
       </c>
-      <c r="BX7" s="61" t="str">
+      <c r="BX7" s="57" t="str">
         <f t="shared" si="19"/>
         <v>W</v>
       </c>
-      <c r="BY7" s="61" t="str">
+      <c r="BY7" s="57" t="str">
         <f t="shared" si="19"/>
         <v>T</v>
       </c>
-      <c r="BZ7" s="61" t="str">
+      <c r="BZ7" s="57" t="str">
         <f t="shared" si="19"/>
         <v>F</v>
       </c>
-      <c r="CA7" s="61" t="str">
+      <c r="CA7" s="57" t="str">
         <f t="shared" si="19"/>
         <v>S</v>
       </c>
-      <c r="CB7" s="62" t="str">
+      <c r="CB7" s="58" t="str">
         <f t="shared" si="19"/>
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:80" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:80" s="18" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="C8" s="31"/>
       <c r="D8" s="32"/>
       <c r="E8" s="33"/>
-      <c r="F8" s="54" t="str">
+      <c r="F8" s="50" t="str">
         <f>IF(ISBLANK(E8)," - ",IF(G8=0,E8,E8+G8-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="35"/>
       <c r="I8" s="36" t="str">
-        <f t="shared" ref="I8:I29" si="20">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I30" si="20">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="39"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="45"/>
-      <c r="AM8" s="45"/>
-      <c r="AN8" s="45"/>
-      <c r="AO8" s="45"/>
-      <c r="AP8" s="45"/>
-      <c r="AQ8" s="45"/>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
-      <c r="AT8" s="45"/>
-      <c r="AU8" s="45"/>
-      <c r="AV8" s="45"/>
-      <c r="AW8" s="45"/>
-      <c r="AX8" s="45"/>
-      <c r="AY8" s="45"/>
-      <c r="AZ8" s="45"/>
-      <c r="BA8" s="45"/>
-      <c r="BB8" s="45"/>
-      <c r="BC8" s="45"/>
-      <c r="BD8" s="45"/>
-      <c r="BE8" s="45"/>
-      <c r="BF8" s="45"/>
-      <c r="BG8" s="45"/>
-      <c r="BH8" s="45"/>
-      <c r="BI8" s="45"/>
-      <c r="BJ8" s="45"/>
-      <c r="BK8" s="45"/>
-      <c r="BL8" s="45"/>
-      <c r="BM8" s="45"/>
-      <c r="BN8" s="45"/>
-      <c r="BO8" s="45"/>
-      <c r="BP8" s="45"/>
-      <c r="BQ8" s="45"/>
-      <c r="BR8" s="45"/>
-      <c r="BS8" s="45"/>
-      <c r="BT8" s="45"/>
-      <c r="BU8" s="45"/>
-      <c r="BV8" s="45"/>
-      <c r="BW8" s="45"/>
-      <c r="BX8" s="45"/>
-      <c r="BY8" s="45"/>
-      <c r="BZ8" s="45"/>
-      <c r="CA8" s="45"/>
-      <c r="CB8" s="45"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="42"/>
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="42"/>
+      <c r="AK8" s="42"/>
+      <c r="AL8" s="42"/>
+      <c r="AM8" s="42"/>
+      <c r="AN8" s="42"/>
+      <c r="AO8" s="42"/>
+      <c r="AP8" s="42"/>
+      <c r="AQ8" s="42"/>
+      <c r="AR8" s="42"/>
+      <c r="AS8" s="42"/>
+      <c r="AT8" s="42"/>
+      <c r="AU8" s="42"/>
+      <c r="AV8" s="42"/>
+      <c r="AW8" s="42"/>
+      <c r="AX8" s="42"/>
+      <c r="AY8" s="42"/>
+      <c r="AZ8" s="42"/>
+      <c r="BA8" s="42"/>
+      <c r="BB8" s="42"/>
+      <c r="BC8" s="42"/>
+      <c r="BD8" s="42"/>
+      <c r="BE8" s="42"/>
+      <c r="BF8" s="42"/>
+      <c r="BG8" s="42"/>
+      <c r="BH8" s="42"/>
+      <c r="BI8" s="42"/>
+      <c r="BJ8" s="42"/>
+      <c r="BK8" s="42"/>
+      <c r="BL8" s="42"/>
+      <c r="BM8" s="42"/>
+      <c r="BN8" s="42"/>
+      <c r="BO8" s="42"/>
+      <c r="BP8" s="42"/>
+      <c r="BQ8" s="42"/>
+      <c r="BR8" s="42"/>
+      <c r="BS8" s="42"/>
+      <c r="BT8" s="42"/>
+      <c r="BU8" s="42"/>
+      <c r="BV8" s="42"/>
+      <c r="BW8" s="42"/>
+      <c r="BX8" s="42"/>
+      <c r="BY8" s="42"/>
+      <c r="BZ8" s="42"/>
+      <c r="CA8" s="42"/>
+      <c r="CB8" s="42"/>
     </row>
-    <row r="9" spans="1:80" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:80" s="24" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="str">
-        <f t="shared" ref="A9:A19" si="21">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A9:A17" si="21">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="42">
-        <v>44676</v>
-      </c>
-      <c r="F9" s="43">
-        <v>44683</v>
+      <c r="B9" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="62"/>
+      <c r="E9" s="68">
+        <v>44661</v>
+      </c>
+      <c r="F9" s="71">
+        <v>44670</v>
       </c>
       <c r="G9" s="25">
-        <v>5</v>
+        <f>_xlfn.DAYS(F9,E9)</f>
+        <v>9</v>
       </c>
       <c r="H9" s="26">
         <v>1</v>
       </c>
       <c r="I9" s="27">
         <f>IF(OR(F9=0,E9=0)," - ",NETWORKDAYS(E9,F9))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J9" s="40"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="46"/>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="46"/>
-      <c r="AD9" s="46"/>
-      <c r="AE9" s="46"/>
-      <c r="AF9" s="46"/>
-      <c r="AG9" s="46"/>
-      <c r="AH9" s="46"/>
-      <c r="AI9" s="46"/>
-      <c r="AJ9" s="46"/>
-      <c r="AK9" s="46"/>
-      <c r="AL9" s="46"/>
-      <c r="AM9" s="46"/>
-      <c r="AN9" s="46"/>
-      <c r="AO9" s="46"/>
-      <c r="AP9" s="46"/>
-      <c r="AQ9" s="46"/>
-      <c r="AR9" s="46"/>
-      <c r="AS9" s="46"/>
-      <c r="AT9" s="46"/>
-      <c r="AU9" s="46"/>
-      <c r="AV9" s="46"/>
-      <c r="AW9" s="46"/>
-      <c r="AX9" s="46"/>
-      <c r="AY9" s="46"/>
-      <c r="AZ9" s="46"/>
-      <c r="BA9" s="46"/>
-      <c r="BB9" s="46"/>
-      <c r="BC9" s="46"/>
-      <c r="BD9" s="46"/>
-      <c r="BE9" s="46"/>
-      <c r="BF9" s="46"/>
-      <c r="BG9" s="46"/>
-      <c r="BH9" s="46"/>
-      <c r="BI9" s="46"/>
-      <c r="BJ9" s="46"/>
-      <c r="BK9" s="46"/>
-      <c r="BL9" s="46"/>
-      <c r="BM9" s="46"/>
-      <c r="BN9" s="46"/>
-      <c r="BO9" s="46"/>
-      <c r="BP9" s="46"/>
-      <c r="BQ9" s="46"/>
-      <c r="BR9" s="46"/>
-      <c r="BS9" s="46"/>
-      <c r="BT9" s="46"/>
-      <c r="BU9" s="46"/>
-      <c r="BV9" s="46"/>
-      <c r="BW9" s="46"/>
-      <c r="BX9" s="46"/>
-      <c r="BY9" s="46"/>
-      <c r="BZ9" s="46"/>
-      <c r="CA9" s="46"/>
-      <c r="CB9" s="46"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="43"/>
+      <c r="AH9" s="43"/>
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="43"/>
+      <c r="AK9" s="43"/>
+      <c r="AL9" s="43"/>
+      <c r="AM9" s="43"/>
+      <c r="AN9" s="43"/>
+      <c r="AO9" s="43"/>
+      <c r="AP9" s="43"/>
+      <c r="AQ9" s="43"/>
+      <c r="AR9" s="43"/>
+      <c r="AS9" s="43"/>
+      <c r="AT9" s="43"/>
+      <c r="AU9" s="43"/>
+      <c r="AV9" s="43"/>
+      <c r="AW9" s="43"/>
+      <c r="AX9" s="43"/>
+      <c r="AY9" s="43"/>
+      <c r="AZ9" s="43"/>
+      <c r="BA9" s="43"/>
+      <c r="BB9" s="43"/>
+      <c r="BC9" s="43"/>
+      <c r="BD9" s="43"/>
+      <c r="BE9" s="43"/>
+      <c r="BF9" s="43"/>
+      <c r="BG9" s="43"/>
+      <c r="BH9" s="43"/>
+      <c r="BI9" s="43"/>
+      <c r="BJ9" s="43"/>
+      <c r="BK9" s="43"/>
+      <c r="BL9" s="43"/>
+      <c r="BM9" s="43"/>
+      <c r="BN9" s="43"/>
+      <c r="BO9" s="43"/>
+      <c r="BP9" s="43"/>
+      <c r="BQ9" s="43"/>
+      <c r="BR9" s="43"/>
+      <c r="BS9" s="43"/>
+      <c r="BT9" s="43"/>
+      <c r="BU9" s="43"/>
+      <c r="BV9" s="43"/>
+      <c r="BW9" s="43"/>
+      <c r="BX9" s="43"/>
+      <c r="BY9" s="43"/>
+      <c r="BZ9" s="43"/>
+      <c r="CA9" s="43"/>
+      <c r="CB9" s="43"/>
     </row>
-    <row r="10" spans="1:80" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="str">
-        <f t="shared" si="21"/>
-        <v>1.2</v>
-      </c>
-      <c r="B10" s="65"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="25">
-        <v>10</v>
-      </c>
-      <c r="H10" s="26">
-        <v>1</v>
-      </c>
-      <c r="I10" s="27" t="str">
-        <f>IF(OR(F10=0,E10=0)," - ",NETWORKDAYS(E10,F10))</f>
+    <row r="10" spans="1:80" s="18" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>2</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="72" t="str">
+        <f>IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J10" s="40"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="46"/>
-      <c r="AB10" s="46"/>
-      <c r="AC10" s="46"/>
-      <c r="AD10" s="46"/>
-      <c r="AE10" s="46"/>
-      <c r="AF10" s="46"/>
-      <c r="AG10" s="46"/>
-      <c r="AH10" s="46"/>
-      <c r="AI10" s="46"/>
-      <c r="AJ10" s="46"/>
-      <c r="AK10" s="46"/>
-      <c r="AL10" s="46"/>
-      <c r="AM10" s="46"/>
-      <c r="AN10" s="46"/>
-      <c r="AO10" s="46"/>
-      <c r="AP10" s="46"/>
-      <c r="AQ10" s="46"/>
-      <c r="AR10" s="46"/>
-      <c r="AS10" s="46"/>
-      <c r="AT10" s="46"/>
-      <c r="AU10" s="46"/>
-      <c r="AV10" s="46"/>
-      <c r="AW10" s="46"/>
-      <c r="AX10" s="46"/>
-      <c r="AY10" s="46"/>
-      <c r="AZ10" s="46"/>
-      <c r="BA10" s="46"/>
-      <c r="BB10" s="46"/>
-      <c r="BC10" s="46"/>
-      <c r="BD10" s="46"/>
-      <c r="BE10" s="46"/>
-      <c r="BF10" s="46"/>
-      <c r="BG10" s="46"/>
-      <c r="BH10" s="46"/>
-      <c r="BI10" s="46"/>
-      <c r="BJ10" s="46"/>
-      <c r="BK10" s="46"/>
-      <c r="BL10" s="46"/>
-      <c r="BM10" s="46"/>
-      <c r="BN10" s="46"/>
-      <c r="BO10" s="46"/>
-      <c r="BP10" s="46"/>
-      <c r="BQ10" s="46"/>
-      <c r="BR10" s="46"/>
-      <c r="BS10" s="46"/>
-      <c r="BT10" s="46"/>
-      <c r="BU10" s="46"/>
-      <c r="BV10" s="46"/>
-      <c r="BW10" s="46"/>
-      <c r="BX10" s="46"/>
-      <c r="BY10" s="46"/>
-      <c r="BZ10" s="46"/>
-      <c r="CA10" s="46"/>
-      <c r="CB10" s="46"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36" t="str">
+        <f t="shared" ref="I10" si="22">IF(OR(F10=0,E10=0)," - ",NETWORKDAYS(E10,F10))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J10" s="39"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="42"/>
+      <c r="AJ10" s="42"/>
+      <c r="AK10" s="42"/>
+      <c r="AL10" s="42"/>
+      <c r="AM10" s="42"/>
+      <c r="AN10" s="42"/>
+      <c r="AO10" s="42"/>
+      <c r="AP10" s="42"/>
+      <c r="AQ10" s="42"/>
+      <c r="AR10" s="42"/>
+      <c r="AS10" s="42"/>
+      <c r="AT10" s="42"/>
+      <c r="AU10" s="42"/>
+      <c r="AV10" s="42"/>
+      <c r="AW10" s="42"/>
+      <c r="AX10" s="42"/>
+      <c r="AY10" s="42"/>
+      <c r="AZ10" s="42"/>
+      <c r="BA10" s="42"/>
+      <c r="BB10" s="42"/>
+      <c r="BC10" s="42"/>
+      <c r="BD10" s="42"/>
+      <c r="BE10" s="42"/>
+      <c r="BF10" s="42"/>
+      <c r="BG10" s="42"/>
+      <c r="BH10" s="42"/>
+      <c r="BI10" s="42"/>
+      <c r="BJ10" s="42"/>
+      <c r="BK10" s="42"/>
+      <c r="BL10" s="42"/>
+      <c r="BM10" s="42"/>
+      <c r="BN10" s="42"/>
+      <c r="BO10" s="42"/>
+      <c r="BP10" s="42"/>
+      <c r="BQ10" s="42"/>
+      <c r="BR10" s="42"/>
+      <c r="BS10" s="42"/>
+      <c r="BT10" s="42"/>
+      <c r="BU10" s="42"/>
+      <c r="BV10" s="42"/>
+      <c r="BW10" s="42"/>
+      <c r="BX10" s="42"/>
+      <c r="BY10" s="42"/>
+      <c r="BZ10" s="42"/>
+      <c r="CA10" s="42"/>
+      <c r="CB10" s="42"/>
     </row>
-    <row r="11" spans="1:80" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:80" s="24" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="str">
         <f t="shared" si="21"/>
-        <v>1.3</v>
-      </c>
-      <c r="B11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
+        <v>2.1</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="62"/>
+      <c r="E11" s="68">
+        <v>44670</v>
+      </c>
+      <c r="F11" s="71">
+        <v>44673</v>
+      </c>
       <c r="G11" s="25">
-        <v>5</v>
+        <f>_xlfn.DAYS(F11,E11)</f>
+        <v>3</v>
       </c>
       <c r="H11" s="26">
         <v>1</v>
       </c>
-      <c r="I11" s="27" t="str">
+      <c r="I11" s="27">
+        <f>IF(OR(F11=0,E11=0)," - ",NETWORKDAYS(E11,F11))</f>
+        <v>4</v>
+      </c>
+      <c r="J11" s="40"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="43"/>
+      <c r="AE11" s="43"/>
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="43"/>
+      <c r="AH11" s="43"/>
+      <c r="AI11" s="43"/>
+      <c r="AJ11" s="43"/>
+      <c r="AK11" s="43"/>
+      <c r="AL11" s="43"/>
+      <c r="AM11" s="43"/>
+      <c r="AN11" s="43"/>
+      <c r="AO11" s="43"/>
+      <c r="AP11" s="43"/>
+      <c r="AQ11" s="43"/>
+      <c r="AR11" s="43"/>
+      <c r="AS11" s="43"/>
+      <c r="AT11" s="43"/>
+      <c r="AU11" s="43"/>
+      <c r="AV11" s="43"/>
+      <c r="AW11" s="43"/>
+      <c r="AX11" s="43"/>
+      <c r="AY11" s="43"/>
+      <c r="AZ11" s="43"/>
+      <c r="BA11" s="43"/>
+      <c r="BB11" s="43"/>
+      <c r="BC11" s="43"/>
+      <c r="BD11" s="43"/>
+      <c r="BE11" s="43"/>
+      <c r="BF11" s="43"/>
+      <c r="BG11" s="43"/>
+      <c r="BH11" s="43"/>
+      <c r="BI11" s="43"/>
+      <c r="BJ11" s="43"/>
+      <c r="BK11" s="43"/>
+      <c r="BL11" s="43"/>
+      <c r="BM11" s="43"/>
+      <c r="BN11" s="43"/>
+      <c r="BO11" s="43"/>
+      <c r="BP11" s="43"/>
+      <c r="BQ11" s="43"/>
+      <c r="BR11" s="43"/>
+      <c r="BS11" s="43"/>
+      <c r="BT11" s="43"/>
+      <c r="BU11" s="43"/>
+      <c r="BV11" s="43"/>
+      <c r="BW11" s="43"/>
+      <c r="BX11" s="43"/>
+      <c r="BY11" s="43"/>
+      <c r="BZ11" s="43"/>
+      <c r="CA11" s="43"/>
+      <c r="CB11" s="43"/>
+    </row>
+    <row r="12" spans="1:80" s="24" customFormat="1" ht="34.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>2.1.1</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="62"/>
+      <c r="E12" s="68">
+        <v>44673</v>
+      </c>
+      <c r="F12" s="71">
+        <v>44676</v>
+      </c>
+      <c r="G12" s="25">
+        <f>_xlfn.DAYS(F12,E12)</f>
+        <v>3</v>
+      </c>
+      <c r="H12" s="26">
+        <v>1</v>
+      </c>
+      <c r="I12" s="27">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="J12" s="40"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="43"/>
+      <c r="AE12" s="43"/>
+      <c r="AF12" s="43"/>
+      <c r="AG12" s="43"/>
+      <c r="AH12" s="43"/>
+      <c r="AI12" s="43"/>
+      <c r="AJ12" s="43"/>
+      <c r="AK12" s="43"/>
+      <c r="AL12" s="43"/>
+      <c r="AM12" s="43"/>
+      <c r="AN12" s="43"/>
+      <c r="AO12" s="43"/>
+      <c r="AP12" s="43"/>
+      <c r="AQ12" s="43"/>
+      <c r="AR12" s="43"/>
+      <c r="AS12" s="43"/>
+      <c r="AT12" s="43"/>
+      <c r="AU12" s="43"/>
+      <c r="AV12" s="43"/>
+      <c r="AW12" s="43"/>
+      <c r="AX12" s="43"/>
+      <c r="AY12" s="43"/>
+      <c r="AZ12" s="43"/>
+      <c r="BA12" s="43"/>
+      <c r="BB12" s="43"/>
+      <c r="BC12" s="43"/>
+      <c r="BD12" s="43"/>
+      <c r="BE12" s="43"/>
+      <c r="BF12" s="43"/>
+      <c r="BG12" s="43"/>
+      <c r="BH12" s="43"/>
+      <c r="BI12" s="43"/>
+      <c r="BJ12" s="43"/>
+      <c r="BK12" s="43"/>
+      <c r="BL12" s="43"/>
+      <c r="BM12" s="43"/>
+      <c r="BN12" s="43"/>
+      <c r="BO12" s="43"/>
+      <c r="BP12" s="43"/>
+      <c r="BQ12" s="43"/>
+      <c r="BR12" s="43"/>
+      <c r="BS12" s="43"/>
+      <c r="BT12" s="43"/>
+      <c r="BU12" s="43"/>
+      <c r="BV12" s="43"/>
+      <c r="BW12" s="43"/>
+      <c r="BX12" s="43"/>
+      <c r="BY12" s="43"/>
+      <c r="BZ12" s="43"/>
+      <c r="CA12" s="43"/>
+      <c r="CB12" s="43"/>
+    </row>
+    <row r="13" spans="1:80" s="24" customFormat="1" ht="23.15" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>2.1.2</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="62"/>
+      <c r="E13" s="68">
+        <v>44676</v>
+      </c>
+      <c r="F13" s="71">
+        <v>44680</v>
+      </c>
+      <c r="G13" s="25">
+        <f t="shared" ref="G13:G17" si="23">_xlfn.DAYS(F13,E13)</f>
+        <v>4</v>
+      </c>
+      <c r="H13" s="26">
+        <v>1</v>
+      </c>
+      <c r="I13" s="27">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="J13" s="40"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="43"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="43"/>
+      <c r="AH13" s="43"/>
+      <c r="AI13" s="43"/>
+      <c r="AJ13" s="43"/>
+      <c r="AK13" s="43"/>
+      <c r="AL13" s="43"/>
+      <c r="AM13" s="43"/>
+      <c r="AN13" s="43"/>
+      <c r="AO13" s="43"/>
+      <c r="AP13" s="43"/>
+      <c r="AQ13" s="43"/>
+      <c r="AR13" s="43"/>
+      <c r="AS13" s="43"/>
+      <c r="AT13" s="43"/>
+      <c r="AU13" s="43"/>
+      <c r="AV13" s="43"/>
+      <c r="AW13" s="43"/>
+      <c r="AX13" s="43"/>
+      <c r="AY13" s="43"/>
+      <c r="AZ13" s="43"/>
+      <c r="BA13" s="43"/>
+      <c r="BB13" s="43"/>
+      <c r="BC13" s="43"/>
+      <c r="BD13" s="43"/>
+      <c r="BE13" s="43"/>
+      <c r="BF13" s="43"/>
+      <c r="BG13" s="43"/>
+      <c r="BH13" s="43"/>
+      <c r="BI13" s="43"/>
+      <c r="BJ13" s="43"/>
+      <c r="BK13" s="43"/>
+      <c r="BL13" s="43"/>
+      <c r="BM13" s="43"/>
+      <c r="BN13" s="43"/>
+      <c r="BO13" s="43"/>
+      <c r="BP13" s="43"/>
+      <c r="BQ13" s="43"/>
+      <c r="BR13" s="43"/>
+      <c r="BS13" s="43"/>
+      <c r="BT13" s="43"/>
+      <c r="BU13" s="43"/>
+      <c r="BV13" s="43"/>
+      <c r="BW13" s="43"/>
+      <c r="BX13" s="43"/>
+      <c r="BY13" s="43"/>
+      <c r="BZ13" s="43"/>
+      <c r="CA13" s="43"/>
+      <c r="CB13" s="43"/>
+    </row>
+    <row r="14" spans="1:80" s="24" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="str">
+        <f t="shared" si="21"/>
+        <v>2.2</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="62"/>
+      <c r="E14" s="68">
+        <v>44680</v>
+      </c>
+      <c r="F14" s="71">
+        <v>44687</v>
+      </c>
+      <c r="G14" s="25">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="H14" s="26">
+        <v>1</v>
+      </c>
+      <c r="I14" s="27">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="J14" s="40"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="43"/>
+      <c r="AF14" s="43"/>
+      <c r="AG14" s="43"/>
+      <c r="AH14" s="43"/>
+      <c r="AI14" s="43"/>
+      <c r="AJ14" s="43"/>
+      <c r="AK14" s="43"/>
+      <c r="AL14" s="43"/>
+      <c r="AM14" s="43"/>
+      <c r="AN14" s="43"/>
+      <c r="AO14" s="43"/>
+      <c r="AP14" s="43"/>
+      <c r="AQ14" s="43"/>
+      <c r="AR14" s="43"/>
+      <c r="AS14" s="43"/>
+      <c r="AT14" s="43"/>
+      <c r="AU14" s="43"/>
+      <c r="AV14" s="43"/>
+      <c r="AW14" s="43"/>
+      <c r="AX14" s="43"/>
+      <c r="AY14" s="43"/>
+      <c r="AZ14" s="43"/>
+      <c r="BA14" s="43"/>
+      <c r="BB14" s="43"/>
+      <c r="BC14" s="43"/>
+      <c r="BD14" s="43"/>
+      <c r="BE14" s="43"/>
+      <c r="BF14" s="43"/>
+      <c r="BG14" s="43"/>
+      <c r="BH14" s="43"/>
+      <c r="BI14" s="43"/>
+      <c r="BJ14" s="43"/>
+      <c r="BK14" s="43"/>
+      <c r="BL14" s="43"/>
+      <c r="BM14" s="43"/>
+      <c r="BN14" s="43"/>
+      <c r="BO14" s="43"/>
+      <c r="BP14" s="43"/>
+      <c r="BQ14" s="43"/>
+      <c r="BR14" s="43"/>
+      <c r="BS14" s="43"/>
+      <c r="BT14" s="43"/>
+      <c r="BU14" s="43"/>
+      <c r="BV14" s="43"/>
+      <c r="BW14" s="43"/>
+      <c r="BX14" s="43"/>
+      <c r="BY14" s="43"/>
+      <c r="BZ14" s="43"/>
+      <c r="CA14" s="43"/>
+      <c r="CB14" s="43"/>
+    </row>
+    <row r="15" spans="1:80" s="24" customFormat="1" ht="23.15" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="str">
+        <f t="shared" si="21"/>
+        <v>2.3</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="62"/>
+      <c r="E15" s="68">
+        <v>44687</v>
+      </c>
+      <c r="F15" s="71">
+        <v>44690</v>
+      </c>
+      <c r="G15" s="25">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="H15" s="26">
+        <v>1</v>
+      </c>
+      <c r="I15" s="27">
+        <f>IF(OR(F15=0,E15=0)," - ",NETWORKDAYS(E15,F15))</f>
+        <v>2</v>
+      </c>
+      <c r="J15" s="40"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="43"/>
+      <c r="AD15" s="43"/>
+      <c r="AE15" s="43"/>
+      <c r="AF15" s="43"/>
+      <c r="AG15" s="43"/>
+      <c r="AH15" s="43"/>
+      <c r="AI15" s="43"/>
+      <c r="AJ15" s="43"/>
+      <c r="AK15" s="43"/>
+      <c r="AL15" s="43"/>
+      <c r="AM15" s="43"/>
+      <c r="AN15" s="43"/>
+      <c r="AO15" s="43"/>
+      <c r="AP15" s="43"/>
+      <c r="AQ15" s="43"/>
+      <c r="AR15" s="43"/>
+      <c r="AS15" s="43"/>
+      <c r="AT15" s="43"/>
+      <c r="AU15" s="43"/>
+      <c r="AV15" s="43"/>
+      <c r="AW15" s="43"/>
+      <c r="AX15" s="43"/>
+      <c r="AY15" s="43"/>
+      <c r="AZ15" s="43"/>
+      <c r="BA15" s="43"/>
+      <c r="BB15" s="43"/>
+      <c r="BC15" s="43"/>
+      <c r="BD15" s="43"/>
+      <c r="BE15" s="43"/>
+      <c r="BF15" s="43"/>
+      <c r="BG15" s="43"/>
+      <c r="BH15" s="43"/>
+      <c r="BI15" s="43"/>
+      <c r="BJ15" s="43"/>
+      <c r="BK15" s="43"/>
+      <c r="BL15" s="43"/>
+      <c r="BM15" s="43"/>
+      <c r="BN15" s="43"/>
+      <c r="BO15" s="43"/>
+      <c r="BP15" s="43"/>
+      <c r="BQ15" s="43"/>
+      <c r="BR15" s="43"/>
+      <c r="BS15" s="43"/>
+      <c r="BT15" s="43"/>
+      <c r="BU15" s="43"/>
+      <c r="BV15" s="43"/>
+      <c r="BW15" s="43"/>
+      <c r="BX15" s="43"/>
+      <c r="BY15" s="43"/>
+      <c r="BZ15" s="43"/>
+      <c r="CA15" s="43"/>
+      <c r="CB15" s="43"/>
+    </row>
+    <row r="16" spans="1:80" s="24" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="str">
+        <f t="shared" si="21"/>
+        <v>2.4</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="62"/>
+      <c r="E16" s="68">
+        <v>44690</v>
+      </c>
+      <c r="F16" s="71">
+        <v>44695</v>
+      </c>
+      <c r="G16" s="25">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="H16" s="26">
+        <v>1</v>
+      </c>
+      <c r="I16" s="27">
+        <f>IF(OR(F16=0,E16=0)," - ",NETWORKDAYS(E16,F16))</f>
+        <v>5</v>
+      </c>
+      <c r="J16" s="40"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="43"/>
+      <c r="AC16" s="43"/>
+      <c r="AD16" s="43"/>
+      <c r="AE16" s="43"/>
+      <c r="AF16" s="43"/>
+      <c r="AG16" s="43"/>
+      <c r="AH16" s="43"/>
+      <c r="AI16" s="43"/>
+      <c r="AJ16" s="43"/>
+      <c r="AK16" s="43"/>
+      <c r="AL16" s="43"/>
+      <c r="AM16" s="43"/>
+      <c r="AN16" s="43"/>
+      <c r="AO16" s="43"/>
+      <c r="AP16" s="43"/>
+      <c r="AQ16" s="43"/>
+      <c r="AR16" s="43"/>
+      <c r="AS16" s="43"/>
+      <c r="AT16" s="43"/>
+      <c r="AU16" s="43"/>
+      <c r="AV16" s="43"/>
+      <c r="AW16" s="43"/>
+      <c r="AX16" s="43"/>
+      <c r="AY16" s="43"/>
+      <c r="AZ16" s="43"/>
+      <c r="BA16" s="43"/>
+      <c r="BB16" s="43"/>
+      <c r="BC16" s="43"/>
+      <c r="BD16" s="43"/>
+      <c r="BE16" s="43"/>
+      <c r="BF16" s="43"/>
+      <c r="BG16" s="43"/>
+      <c r="BH16" s="43"/>
+      <c r="BI16" s="43"/>
+      <c r="BJ16" s="43"/>
+      <c r="BK16" s="43"/>
+      <c r="BL16" s="43"/>
+      <c r="BM16" s="43"/>
+      <c r="BN16" s="43"/>
+      <c r="BO16" s="43"/>
+      <c r="BP16" s="43"/>
+      <c r="BQ16" s="43"/>
+      <c r="BR16" s="43"/>
+      <c r="BS16" s="43"/>
+      <c r="BT16" s="43"/>
+      <c r="BU16" s="43"/>
+      <c r="BV16" s="43"/>
+      <c r="BW16" s="43"/>
+      <c r="BX16" s="43"/>
+      <c r="BY16" s="43"/>
+      <c r="BZ16" s="43"/>
+      <c r="CA16" s="43"/>
+      <c r="CB16" s="43"/>
+    </row>
+    <row r="17" spans="1:80" s="24" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="str">
+        <f t="shared" si="21"/>
+        <v>2.5</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="62"/>
+      <c r="E17" s="68">
+        <v>44695</v>
+      </c>
+      <c r="F17" s="71">
+        <v>44703</v>
+      </c>
+      <c r="G17" s="25">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
+      <c r="H17" s="26">
+        <v>1</v>
+      </c>
+      <c r="I17" s="27">
+        <f>IF(OR(F17=0,E17=0)," - ",NETWORKDAYS(E17,F17))</f>
+        <v>5</v>
+      </c>
+      <c r="J17" s="40"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="43"/>
+      <c r="AE17" s="43"/>
+      <c r="AF17" s="43"/>
+      <c r="AG17" s="43"/>
+      <c r="AH17" s="43"/>
+      <c r="AI17" s="43"/>
+      <c r="AJ17" s="43"/>
+      <c r="AK17" s="43"/>
+      <c r="AL17" s="43"/>
+      <c r="AM17" s="43"/>
+      <c r="AN17" s="43"/>
+      <c r="AO17" s="43"/>
+      <c r="AP17" s="43"/>
+      <c r="AQ17" s="43"/>
+      <c r="AR17" s="43"/>
+      <c r="AS17" s="43"/>
+      <c r="AT17" s="43"/>
+      <c r="AU17" s="43"/>
+      <c r="AV17" s="43"/>
+      <c r="AW17" s="43"/>
+      <c r="AX17" s="43"/>
+      <c r="AY17" s="43"/>
+      <c r="AZ17" s="43"/>
+      <c r="BA17" s="43"/>
+      <c r="BB17" s="43"/>
+      <c r="BC17" s="43"/>
+      <c r="BD17" s="43"/>
+      <c r="BE17" s="43"/>
+      <c r="BF17" s="43"/>
+      <c r="BG17" s="43"/>
+      <c r="BH17" s="43"/>
+      <c r="BI17" s="43"/>
+      <c r="BJ17" s="43"/>
+      <c r="BK17" s="43"/>
+      <c r="BL17" s="43"/>
+      <c r="BM17" s="43"/>
+      <c r="BN17" s="43"/>
+      <c r="BO17" s="43"/>
+      <c r="BP17" s="43"/>
+      <c r="BQ17" s="43"/>
+      <c r="BR17" s="43"/>
+      <c r="BS17" s="43"/>
+      <c r="BT17" s="43"/>
+      <c r="BU17" s="43"/>
+      <c r="BV17" s="43"/>
+      <c r="BW17" s="43"/>
+      <c r="BX17" s="43"/>
+      <c r="BY17" s="43"/>
+      <c r="BZ17" s="43"/>
+      <c r="CA17" s="43"/>
+      <c r="CB17" s="43"/>
+    </row>
+    <row r="18" spans="1:80" s="18" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>3</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70" t="str">
+        <f t="shared" ref="F18:F29" si="24">IF(ISBLANK(E18)," - ",IF(G18=0,E18,E18+G18-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="46"/>
-      <c r="AE11" s="46"/>
-      <c r="AF11" s="46"/>
-      <c r="AG11" s="46"/>
-      <c r="AH11" s="46"/>
-      <c r="AI11" s="46"/>
-      <c r="AJ11" s="46"/>
-      <c r="AK11" s="46"/>
-      <c r="AL11" s="46"/>
-      <c r="AM11" s="46"/>
-      <c r="AN11" s="46"/>
-      <c r="AO11" s="46"/>
-      <c r="AP11" s="46"/>
-      <c r="AQ11" s="46"/>
-      <c r="AR11" s="46"/>
-      <c r="AS11" s="46"/>
-      <c r="AT11" s="46"/>
-      <c r="AU11" s="46"/>
-      <c r="AV11" s="46"/>
-      <c r="AW11" s="46"/>
-      <c r="AX11" s="46"/>
-      <c r="AY11" s="46"/>
-      <c r="AZ11" s="46"/>
-      <c r="BA11" s="46"/>
-      <c r="BB11" s="46"/>
-      <c r="BC11" s="46"/>
-      <c r="BD11" s="46"/>
-      <c r="BE11" s="46"/>
-      <c r="BF11" s="46"/>
-      <c r="BG11" s="46"/>
-      <c r="BH11" s="46"/>
-      <c r="BI11" s="46"/>
-      <c r="BJ11" s="46"/>
-      <c r="BK11" s="46"/>
-      <c r="BL11" s="46"/>
-      <c r="BM11" s="46"/>
-      <c r="BN11" s="46"/>
-      <c r="BO11" s="46"/>
-      <c r="BP11" s="46"/>
-      <c r="BQ11" s="46"/>
-      <c r="BR11" s="46"/>
-      <c r="BS11" s="46"/>
-      <c r="BT11" s="46"/>
-      <c r="BU11" s="46"/>
-      <c r="BV11" s="46"/>
-      <c r="BW11" s="46"/>
-      <c r="BX11" s="46"/>
-      <c r="BY11" s="46"/>
-      <c r="BZ11" s="46"/>
-      <c r="CA11" s="46"/>
-      <c r="CB11" s="46"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="44"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="44"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="44"/>
+      <c r="AH18" s="44"/>
+      <c r="AI18" s="44"/>
+      <c r="AJ18" s="44"/>
+      <c r="AK18" s="44"/>
+      <c r="AL18" s="44"/>
+      <c r="AM18" s="44"/>
+      <c r="AN18" s="44"/>
+      <c r="AO18" s="44"/>
+      <c r="AP18" s="44"/>
+      <c r="AQ18" s="44"/>
+      <c r="AR18" s="44"/>
+      <c r="AS18" s="44"/>
+      <c r="AT18" s="44"/>
+      <c r="AU18" s="44"/>
+      <c r="AV18" s="44"/>
+      <c r="AW18" s="44"/>
+      <c r="AX18" s="44"/>
+      <c r="AY18" s="44"/>
+      <c r="AZ18" s="44"/>
+      <c r="BA18" s="44"/>
+      <c r="BB18" s="44"/>
+      <c r="BC18" s="44"/>
+      <c r="BD18" s="44"/>
+      <c r="BE18" s="44"/>
+      <c r="BF18" s="44"/>
+      <c r="BG18" s="44"/>
+      <c r="BH18" s="44"/>
+      <c r="BI18" s="44"/>
+      <c r="BJ18" s="44"/>
+      <c r="BK18" s="44"/>
+      <c r="BL18" s="44"/>
+      <c r="BM18" s="44"/>
+      <c r="BN18" s="44"/>
+      <c r="BO18" s="44"/>
+      <c r="BP18" s="44"/>
+      <c r="BQ18" s="44"/>
+      <c r="BR18" s="44"/>
+      <c r="BS18" s="44"/>
+      <c r="BT18" s="44"/>
+      <c r="BU18" s="44"/>
+      <c r="BV18" s="44"/>
+      <c r="BW18" s="44"/>
+      <c r="BX18" s="44"/>
+      <c r="BY18" s="44"/>
+      <c r="BZ18" s="44"/>
+      <c r="CA18" s="44"/>
+      <c r="CB18" s="44"/>
     </row>
-    <row r="12" spans="1:80" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="str">
+    <row r="19" spans="1:80" s="24" customFormat="1" ht="115.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.1</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="62"/>
+      <c r="E19" s="68">
+        <v>44703</v>
+      </c>
+      <c r="F19" s="71">
+        <v>44710</v>
+      </c>
+      <c r="G19" s="25">
+        <f>_xlfn.DAYS(F19,E19)</f>
+        <v>7</v>
+      </c>
+      <c r="H19" s="26">
+        <v>1</v>
+      </c>
+      <c r="I19" s="27">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="J19" s="40"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="43"/>
+      <c r="AC19" s="43"/>
+      <c r="AD19" s="43"/>
+      <c r="AE19" s="43"/>
+      <c r="AF19" s="43"/>
+      <c r="AG19" s="43"/>
+      <c r="AH19" s="43"/>
+      <c r="AI19" s="43"/>
+      <c r="AJ19" s="43"/>
+      <c r="AK19" s="43"/>
+      <c r="AL19" s="43"/>
+      <c r="AM19" s="43"/>
+      <c r="AN19" s="43"/>
+      <c r="AO19" s="43"/>
+      <c r="AP19" s="43"/>
+      <c r="AQ19" s="43"/>
+      <c r="AR19" s="43"/>
+      <c r="AS19" s="43"/>
+      <c r="AT19" s="43"/>
+      <c r="AU19" s="43"/>
+      <c r="AV19" s="43"/>
+      <c r="AW19" s="43"/>
+      <c r="AX19" s="43"/>
+      <c r="AY19" s="43"/>
+      <c r="AZ19" s="43"/>
+      <c r="BA19" s="43"/>
+      <c r="BB19" s="43"/>
+      <c r="BC19" s="43"/>
+      <c r="BD19" s="43"/>
+      <c r="BE19" s="43"/>
+      <c r="BF19" s="43"/>
+      <c r="BG19" s="43"/>
+      <c r="BH19" s="43"/>
+      <c r="BI19" s="43"/>
+      <c r="BJ19" s="43"/>
+      <c r="BK19" s="43"/>
+      <c r="BL19" s="43"/>
+      <c r="BM19" s="43"/>
+      <c r="BN19" s="43"/>
+      <c r="BO19" s="43"/>
+      <c r="BP19" s="43"/>
+      <c r="BQ19" s="43"/>
+      <c r="BR19" s="43"/>
+      <c r="BS19" s="43"/>
+      <c r="BT19" s="43"/>
+      <c r="BU19" s="43"/>
+      <c r="BV19" s="43"/>
+      <c r="BW19" s="43"/>
+      <c r="BX19" s="43"/>
+      <c r="BY19" s="43"/>
+      <c r="BZ19" s="43"/>
+      <c r="CA19" s="43"/>
+      <c r="CB19" s="43"/>
+    </row>
+    <row r="20" spans="1:80" s="24" customFormat="1" ht="147.44999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.2</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="62"/>
+      <c r="E20" s="68">
+        <v>44710</v>
+      </c>
+      <c r="F20" s="71">
+        <v>44715</v>
+      </c>
+      <c r="G20" s="25">
+        <f t="shared" ref="G20:G25" si="25">_xlfn.DAYS(F20,E20)</f>
+        <v>5</v>
+      </c>
+      <c r="H20" s="26">
+        <v>1</v>
+      </c>
+      <c r="I20" s="27">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="J20" s="40"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="43"/>
+      <c r="AC20" s="43"/>
+      <c r="AD20" s="43"/>
+      <c r="AE20" s="43"/>
+      <c r="AF20" s="43"/>
+      <c r="AG20" s="43"/>
+      <c r="AH20" s="43"/>
+      <c r="AI20" s="43"/>
+      <c r="AJ20" s="43"/>
+      <c r="AK20" s="43"/>
+      <c r="AL20" s="43"/>
+      <c r="AM20" s="43"/>
+      <c r="AN20" s="43"/>
+      <c r="AO20" s="43"/>
+      <c r="AP20" s="43"/>
+      <c r="AQ20" s="43"/>
+      <c r="AR20" s="43"/>
+      <c r="AS20" s="43"/>
+      <c r="AT20" s="43"/>
+      <c r="AU20" s="43"/>
+      <c r="AV20" s="43"/>
+      <c r="AW20" s="43"/>
+      <c r="AX20" s="43"/>
+      <c r="AY20" s="43"/>
+      <c r="AZ20" s="43"/>
+      <c r="BA20" s="43"/>
+      <c r="BB20" s="43"/>
+      <c r="BC20" s="43"/>
+      <c r="BD20" s="43"/>
+      <c r="BE20" s="43"/>
+      <c r="BF20" s="43"/>
+      <c r="BG20" s="43"/>
+      <c r="BH20" s="43"/>
+      <c r="BI20" s="43"/>
+      <c r="BJ20" s="43"/>
+      <c r="BK20" s="43"/>
+      <c r="BL20" s="43"/>
+      <c r="BM20" s="43"/>
+      <c r="BN20" s="43"/>
+      <c r="BO20" s="43"/>
+      <c r="BP20" s="43"/>
+      <c r="BQ20" s="43"/>
+      <c r="BR20" s="43"/>
+      <c r="BS20" s="43"/>
+      <c r="BT20" s="43"/>
+      <c r="BU20" s="43"/>
+      <c r="BV20" s="43"/>
+      <c r="BW20" s="43"/>
+      <c r="BX20" s="43"/>
+      <c r="BY20" s="43"/>
+      <c r="BZ20" s="43"/>
+      <c r="CA20" s="43"/>
+      <c r="CB20" s="43"/>
+    </row>
+    <row r="21" spans="1:80" s="24" customFormat="1" ht="115.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.3</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="62"/>
+      <c r="E21" s="68">
+        <v>44715</v>
+      </c>
+      <c r="F21" s="71">
+        <v>44720</v>
+      </c>
+      <c r="G21" s="25">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="H21" s="26">
+        <v>1</v>
+      </c>
+      <c r="I21" s="27">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="J21" s="40"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="43"/>
+      <c r="AD21" s="43"/>
+      <c r="AE21" s="43"/>
+      <c r="AF21" s="43"/>
+      <c r="AG21" s="43"/>
+      <c r="AH21" s="43"/>
+      <c r="AI21" s="43"/>
+      <c r="AJ21" s="43"/>
+      <c r="AK21" s="43"/>
+      <c r="AL21" s="43"/>
+      <c r="AM21" s="43"/>
+      <c r="AN21" s="43"/>
+      <c r="AO21" s="43"/>
+      <c r="AP21" s="43"/>
+      <c r="AQ21" s="43"/>
+      <c r="AR21" s="43"/>
+      <c r="AS21" s="43"/>
+      <c r="AT21" s="43"/>
+      <c r="AU21" s="43"/>
+      <c r="AV21" s="43"/>
+      <c r="AW21" s="43"/>
+      <c r="AX21" s="43"/>
+      <c r="AY21" s="43"/>
+      <c r="AZ21" s="43"/>
+      <c r="BA21" s="43"/>
+      <c r="BB21" s="43"/>
+      <c r="BC21" s="43"/>
+      <c r="BD21" s="43"/>
+      <c r="BE21" s="43"/>
+      <c r="BF21" s="43"/>
+      <c r="BG21" s="43"/>
+      <c r="BH21" s="43"/>
+      <c r="BI21" s="43"/>
+      <c r="BJ21" s="43"/>
+      <c r="BK21" s="43"/>
+      <c r="BL21" s="43"/>
+      <c r="BM21" s="43"/>
+      <c r="BN21" s="43"/>
+      <c r="BO21" s="43"/>
+      <c r="BP21" s="43"/>
+      <c r="BQ21" s="43"/>
+      <c r="BR21" s="43"/>
+      <c r="BS21" s="43"/>
+      <c r="BT21" s="43"/>
+      <c r="BU21" s="43"/>
+      <c r="BV21" s="43"/>
+      <c r="BW21" s="43"/>
+      <c r="BX21" s="43"/>
+      <c r="BY21" s="43"/>
+      <c r="BZ21" s="43"/>
+      <c r="CA21" s="43"/>
+      <c r="CB21" s="43"/>
+    </row>
+    <row r="22" spans="1:80" s="24" customFormat="1" ht="188.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.4</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="62"/>
+      <c r="E22" s="68">
+        <v>44720</v>
+      </c>
+      <c r="F22" s="71">
+        <v>44724</v>
+      </c>
+      <c r="G22" s="25">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="H22" s="26">
+        <v>1</v>
+      </c>
+      <c r="I22" s="27">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="J22" s="40"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="43"/>
+      <c r="AD22" s="43"/>
+      <c r="AE22" s="43"/>
+      <c r="AF22" s="43"/>
+      <c r="AG22" s="43"/>
+      <c r="AH22" s="43"/>
+      <c r="AI22" s="43"/>
+      <c r="AJ22" s="43"/>
+      <c r="AK22" s="43"/>
+      <c r="AL22" s="43"/>
+      <c r="AM22" s="43"/>
+      <c r="AN22" s="43"/>
+      <c r="AO22" s="43"/>
+      <c r="AP22" s="43"/>
+      <c r="AQ22" s="43"/>
+      <c r="AR22" s="43"/>
+      <c r="AS22" s="43"/>
+      <c r="AT22" s="43"/>
+      <c r="AU22" s="43"/>
+      <c r="AV22" s="43"/>
+      <c r="AW22" s="43"/>
+      <c r="AX22" s="43"/>
+      <c r="AY22" s="43"/>
+      <c r="AZ22" s="43"/>
+      <c r="BA22" s="43"/>
+      <c r="BB22" s="43"/>
+      <c r="BC22" s="43"/>
+      <c r="BD22" s="43"/>
+      <c r="BE22" s="43"/>
+      <c r="BF22" s="43"/>
+      <c r="BG22" s="43"/>
+      <c r="BH22" s="43"/>
+      <c r="BI22" s="43"/>
+      <c r="BJ22" s="43"/>
+      <c r="BK22" s="43"/>
+      <c r="BL22" s="43"/>
+      <c r="BM22" s="43"/>
+      <c r="BN22" s="43"/>
+      <c r="BO22" s="43"/>
+      <c r="BP22" s="43"/>
+      <c r="BQ22" s="43"/>
+      <c r="BR22" s="43"/>
+      <c r="BS22" s="43"/>
+      <c r="BT22" s="43"/>
+      <c r="BU22" s="43"/>
+      <c r="BV22" s="43"/>
+      <c r="BW22" s="43"/>
+      <c r="BX22" s="43"/>
+      <c r="BY22" s="43"/>
+      <c r="BZ22" s="43"/>
+      <c r="CA22" s="43"/>
+      <c r="CB22" s="43"/>
+    </row>
+    <row r="23" spans="1:80" s="24" customFormat="1" ht="109.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.5</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="62"/>
+      <c r="E23" s="68">
+        <v>44724</v>
+      </c>
+      <c r="F23" s="71">
+        <v>44728</v>
+      </c>
+      <c r="G23" s="25">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="H23" s="26">
+        <v>2</v>
+      </c>
+      <c r="I23" s="27">
+        <f t="shared" ref="I23:I24" si="26">IF(OR(F23=0,E23=0)," - ",NETWORKDAYS(E23,F23))</f>
+        <v>4</v>
+      </c>
+      <c r="J23" s="40"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="43"/>
+      <c r="AF23" s="43"/>
+      <c r="AG23" s="43"/>
+      <c r="AH23" s="43"/>
+      <c r="AI23" s="43"/>
+      <c r="AJ23" s="43"/>
+      <c r="AK23" s="43"/>
+      <c r="AL23" s="43"/>
+      <c r="AM23" s="43"/>
+      <c r="AN23" s="43"/>
+      <c r="AO23" s="43"/>
+      <c r="AP23" s="43"/>
+      <c r="AQ23" s="43"/>
+      <c r="AR23" s="43"/>
+      <c r="AS23" s="43"/>
+      <c r="AT23" s="43"/>
+      <c r="AU23" s="43"/>
+      <c r="AV23" s="43"/>
+      <c r="AW23" s="43"/>
+      <c r="AX23" s="43"/>
+      <c r="AY23" s="43"/>
+      <c r="AZ23" s="43"/>
+      <c r="BA23" s="43"/>
+      <c r="BB23" s="43"/>
+      <c r="BC23" s="43"/>
+      <c r="BD23" s="43"/>
+      <c r="BE23" s="43"/>
+      <c r="BF23" s="43"/>
+      <c r="BG23" s="43"/>
+      <c r="BH23" s="43"/>
+      <c r="BI23" s="43"/>
+      <c r="BJ23" s="43"/>
+      <c r="BK23" s="43"/>
+      <c r="BL23" s="43"/>
+      <c r="BM23" s="43"/>
+      <c r="BN23" s="43"/>
+      <c r="BO23" s="43"/>
+      <c r="BP23" s="43"/>
+      <c r="BQ23" s="43"/>
+      <c r="BR23" s="43"/>
+      <c r="BS23" s="43"/>
+      <c r="BT23" s="43"/>
+      <c r="BU23" s="43"/>
+      <c r="BV23" s="43"/>
+      <c r="BW23" s="43"/>
+      <c r="BX23" s="43"/>
+      <c r="BY23" s="43"/>
+      <c r="BZ23" s="43"/>
+      <c r="CA23" s="43"/>
+      <c r="CB23" s="43"/>
+    </row>
+    <row r="24" spans="1:80" s="24" customFormat="1" ht="104.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.6</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="62"/>
+      <c r="E24" s="68">
+        <v>44728</v>
+      </c>
+      <c r="F24" s="71">
+        <v>44731</v>
+      </c>
+      <c r="G24" s="25">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="H24" s="26">
+        <v>3</v>
+      </c>
+      <c r="I24" s="27">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="J24" s="40"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="43"/>
+      <c r="AB24" s="43"/>
+      <c r="AC24" s="43"/>
+      <c r="AD24" s="43"/>
+      <c r="AE24" s="43"/>
+      <c r="AF24" s="43"/>
+      <c r="AG24" s="43"/>
+      <c r="AH24" s="43"/>
+      <c r="AI24" s="43"/>
+      <c r="AJ24" s="43"/>
+      <c r="AK24" s="43"/>
+      <c r="AL24" s="43"/>
+      <c r="AM24" s="43"/>
+      <c r="AN24" s="43"/>
+      <c r="AO24" s="43"/>
+      <c r="AP24" s="43"/>
+      <c r="AQ24" s="43"/>
+      <c r="AR24" s="43"/>
+      <c r="AS24" s="43"/>
+      <c r="AT24" s="43"/>
+      <c r="AU24" s="43"/>
+      <c r="AV24" s="43"/>
+      <c r="AW24" s="43"/>
+      <c r="AX24" s="43"/>
+      <c r="AY24" s="43"/>
+      <c r="AZ24" s="43"/>
+      <c r="BA24" s="43"/>
+      <c r="BB24" s="43"/>
+      <c r="BC24" s="43"/>
+      <c r="BD24" s="43"/>
+      <c r="BE24" s="43"/>
+      <c r="BF24" s="43"/>
+      <c r="BG24" s="43"/>
+      <c r="BH24" s="43"/>
+      <c r="BI24" s="43"/>
+      <c r="BJ24" s="43"/>
+      <c r="BK24" s="43"/>
+      <c r="BL24" s="43"/>
+      <c r="BM24" s="43"/>
+      <c r="BN24" s="43"/>
+      <c r="BO24" s="43"/>
+      <c r="BP24" s="43"/>
+      <c r="BQ24" s="43"/>
+      <c r="BR24" s="43"/>
+      <c r="BS24" s="43"/>
+      <c r="BT24" s="43"/>
+      <c r="BU24" s="43"/>
+      <c r="BV24" s="43"/>
+      <c r="BW24" s="43"/>
+      <c r="BX24" s="43"/>
+      <c r="BY24" s="43"/>
+      <c r="BZ24" s="43"/>
+      <c r="CA24" s="43"/>
+      <c r="CB24" s="43"/>
+    </row>
+    <row r="25" spans="1:80" s="24" customFormat="1" ht="85.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.7</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="62"/>
+      <c r="E25" s="68">
+        <v>44731</v>
+      </c>
+      <c r="F25" s="71">
+        <v>44733</v>
+      </c>
+      <c r="G25" s="25">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="H25" s="26">
+        <v>4</v>
+      </c>
+      <c r="I25" s="27">
+        <f t="shared" ref="I25" si="27">IF(OR(F25=0,E25=0)," - ",NETWORKDAYS(E25,F25))</f>
+        <v>2</v>
+      </c>
+      <c r="J25" s="40"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="43"/>
+      <c r="AC25" s="43"/>
+      <c r="AD25" s="43"/>
+      <c r="AE25" s="43"/>
+      <c r="AF25" s="43"/>
+      <c r="AG25" s="43"/>
+      <c r="AH25" s="43"/>
+      <c r="AI25" s="43"/>
+      <c r="AJ25" s="43"/>
+      <c r="AK25" s="43"/>
+      <c r="AL25" s="43"/>
+      <c r="AM25" s="43"/>
+      <c r="AN25" s="43"/>
+      <c r="AO25" s="43"/>
+      <c r="AP25" s="43"/>
+      <c r="AQ25" s="43"/>
+      <c r="AR25" s="43"/>
+      <c r="AS25" s="43"/>
+      <c r="AT25" s="43"/>
+      <c r="AU25" s="43"/>
+      <c r="AV25" s="43"/>
+      <c r="AW25" s="43"/>
+      <c r="AX25" s="43"/>
+      <c r="AY25" s="43"/>
+      <c r="AZ25" s="43"/>
+      <c r="BA25" s="43"/>
+      <c r="BB25" s="43"/>
+      <c r="BC25" s="43"/>
+      <c r="BD25" s="43"/>
+      <c r="BE25" s="43"/>
+      <c r="BF25" s="43"/>
+      <c r="BG25" s="43"/>
+      <c r="BH25" s="43"/>
+      <c r="BI25" s="43"/>
+      <c r="BJ25" s="43"/>
+      <c r="BK25" s="43"/>
+      <c r="BL25" s="43"/>
+      <c r="BM25" s="43"/>
+      <c r="BN25" s="43"/>
+      <c r="BO25" s="43"/>
+      <c r="BP25" s="43"/>
+      <c r="BQ25" s="43"/>
+      <c r="BR25" s="43"/>
+      <c r="BS25" s="43"/>
+      <c r="BT25" s="43"/>
+      <c r="BU25" s="43"/>
+      <c r="BV25" s="43"/>
+      <c r="BW25" s="43"/>
+      <c r="BX25" s="43"/>
+      <c r="BY25" s="43"/>
+      <c r="BZ25" s="43"/>
+      <c r="CA25" s="43"/>
+      <c r="CB25" s="43"/>
+    </row>
+    <row r="26" spans="1:80" s="18" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>2</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="54" t="str">
-        <f>IF(ISBLANK(E12)," - ",IF(G12=0,E12,E12+G12-1))</f>
+        <v>4</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70" t="str">
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36" t="str">
-        <f t="shared" ref="I12" si="22">IF(OR(F12=0,E12=0)," - ",NETWORKDAYS(E12,F12))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="45"/>
-      <c r="AH12" s="45"/>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="45"/>
-      <c r="AM12" s="45"/>
-      <c r="AN12" s="45"/>
-      <c r="AO12" s="45"/>
-      <c r="AP12" s="45"/>
-      <c r="AQ12" s="45"/>
-      <c r="AR12" s="45"/>
-      <c r="AS12" s="45"/>
-      <c r="AT12" s="45"/>
-      <c r="AU12" s="45"/>
-      <c r="AV12" s="45"/>
-      <c r="AW12" s="45"/>
-      <c r="AX12" s="45"/>
-      <c r="AY12" s="45"/>
-      <c r="AZ12" s="45"/>
-      <c r="BA12" s="45"/>
-      <c r="BB12" s="45"/>
-      <c r="BC12" s="45"/>
-      <c r="BD12" s="45"/>
-      <c r="BE12" s="45"/>
-      <c r="BF12" s="45"/>
-      <c r="BG12" s="45"/>
-      <c r="BH12" s="45"/>
-      <c r="BI12" s="45"/>
-      <c r="BJ12" s="45"/>
-      <c r="BK12" s="45"/>
-      <c r="BL12" s="45"/>
-      <c r="BM12" s="45"/>
-      <c r="BN12" s="45"/>
-      <c r="BO12" s="45"/>
-      <c r="BP12" s="45"/>
-      <c r="BQ12" s="45"/>
-      <c r="BR12" s="45"/>
-      <c r="BS12" s="45"/>
-      <c r="BT12" s="45"/>
-      <c r="BU12" s="45"/>
-      <c r="BV12" s="45"/>
-      <c r="BW12" s="45"/>
-      <c r="BX12" s="45"/>
-      <c r="BY12" s="45"/>
-      <c r="BZ12" s="45"/>
-      <c r="CA12" s="45"/>
-      <c r="CB12" s="45"/>
-    </row>
-    <row r="13" spans="1:80" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.1</v>
-      </c>
-      <c r="B13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="25">
-        <v>5</v>
-      </c>
-      <c r="H13" s="26">
-        <v>1</v>
-      </c>
-      <c r="I13" s="27" t="str">
+      <c r="G26" s="20"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="46"/>
-      <c r="AB13" s="46"/>
-      <c r="AC13" s="46"/>
-      <c r="AD13" s="46"/>
-      <c r="AE13" s="46"/>
-      <c r="AF13" s="46"/>
-      <c r="AG13" s="46"/>
-      <c r="AH13" s="46"/>
-      <c r="AI13" s="46"/>
-      <c r="AJ13" s="46"/>
-      <c r="AK13" s="46"/>
-      <c r="AL13" s="46"/>
-      <c r="AM13" s="46"/>
-      <c r="AN13" s="46"/>
-      <c r="AO13" s="46"/>
-      <c r="AP13" s="46"/>
-      <c r="AQ13" s="46"/>
-      <c r="AR13" s="46"/>
-      <c r="AS13" s="46"/>
-      <c r="AT13" s="46"/>
-      <c r="AU13" s="46"/>
-      <c r="AV13" s="46"/>
-      <c r="AW13" s="46"/>
-      <c r="AX13" s="46"/>
-      <c r="AY13" s="46"/>
-      <c r="AZ13" s="46"/>
-      <c r="BA13" s="46"/>
-      <c r="BB13" s="46"/>
-      <c r="BC13" s="46"/>
-      <c r="BD13" s="46"/>
-      <c r="BE13" s="46"/>
-      <c r="BF13" s="46"/>
-      <c r="BG13" s="46"/>
-      <c r="BH13" s="46"/>
-      <c r="BI13" s="46"/>
-      <c r="BJ13" s="46"/>
-      <c r="BK13" s="46"/>
-      <c r="BL13" s="46"/>
-      <c r="BM13" s="46"/>
-      <c r="BN13" s="46"/>
-      <c r="BO13" s="46"/>
-      <c r="BP13" s="46"/>
-      <c r="BQ13" s="46"/>
-      <c r="BR13" s="46"/>
-      <c r="BS13" s="46"/>
-      <c r="BT13" s="46"/>
-      <c r="BU13" s="46"/>
-      <c r="BV13" s="46"/>
-      <c r="BW13" s="46"/>
-      <c r="BX13" s="46"/>
-      <c r="BY13" s="46"/>
-      <c r="BZ13" s="46"/>
-      <c r="CA13" s="46"/>
-      <c r="CB13" s="46"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="44"/>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="44"/>
+      <c r="AF26" s="44"/>
+      <c r="AG26" s="44"/>
+      <c r="AH26" s="44"/>
+      <c r="AI26" s="44"/>
+      <c r="AJ26" s="44"/>
+      <c r="AK26" s="44"/>
+      <c r="AL26" s="44"/>
+      <c r="AM26" s="44"/>
+      <c r="AN26" s="44"/>
+      <c r="AO26" s="44"/>
+      <c r="AP26" s="44"/>
+      <c r="AQ26" s="44"/>
+      <c r="AR26" s="44"/>
+      <c r="AS26" s="44"/>
+      <c r="AT26" s="44"/>
+      <c r="AU26" s="44"/>
+      <c r="AV26" s="44"/>
+      <c r="AW26" s="44"/>
+      <c r="AX26" s="44"/>
+      <c r="AY26" s="44"/>
+      <c r="AZ26" s="44"/>
+      <c r="BA26" s="44"/>
+      <c r="BB26" s="44"/>
+      <c r="BC26" s="44"/>
+      <c r="BD26" s="44"/>
+      <c r="BE26" s="44"/>
+      <c r="BF26" s="44"/>
+      <c r="BG26" s="44"/>
+      <c r="BH26" s="44"/>
+      <c r="BI26" s="44"/>
+      <c r="BJ26" s="44"/>
+      <c r="BK26" s="44"/>
+      <c r="BL26" s="44"/>
+      <c r="BM26" s="44"/>
+      <c r="BN26" s="44"/>
+      <c r="BO26" s="44"/>
+      <c r="BP26" s="44"/>
+      <c r="BQ26" s="44"/>
+      <c r="BR26" s="44"/>
+      <c r="BS26" s="44"/>
+      <c r="BT26" s="44"/>
+      <c r="BU26" s="44"/>
+      <c r="BV26" s="44"/>
+      <c r="BW26" s="44"/>
+      <c r="BX26" s="44"/>
+      <c r="BY26" s="44"/>
+      <c r="BZ26" s="44"/>
+      <c r="CA26" s="44"/>
+      <c r="CB26" s="44"/>
     </row>
-    <row r="14" spans="1:80" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.1.1</v>
-      </c>
-      <c r="B14" s="65"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="25">
+    <row r="27" spans="1:80" s="24" customFormat="1" ht="70.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.1</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="62"/>
+      <c r="E27" s="68">
+        <v>44691</v>
+      </c>
+      <c r="F27" s="71">
+        <v>44733</v>
+      </c>
+      <c r="G27" s="25">
+        <f>_xlfn.DAYS(F27,E27)</f>
+        <v>42</v>
+      </c>
+      <c r="H27" s="26">
         <v>1</v>
       </c>
-      <c r="H14" s="26">
+      <c r="I27" s="27">
+        <f t="shared" si="20"/>
+        <v>31</v>
+      </c>
+      <c r="J27" s="40"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="43"/>
+      <c r="AC27" s="43"/>
+      <c r="AD27" s="43"/>
+      <c r="AE27" s="43"/>
+      <c r="AF27" s="43"/>
+      <c r="AG27" s="43"/>
+      <c r="AH27" s="43"/>
+      <c r="AI27" s="43"/>
+      <c r="AJ27" s="43"/>
+      <c r="AK27" s="43"/>
+      <c r="AL27" s="43"/>
+      <c r="AM27" s="43"/>
+      <c r="AN27" s="43"/>
+      <c r="AO27" s="43"/>
+      <c r="AP27" s="43"/>
+      <c r="AQ27" s="43"/>
+      <c r="AR27" s="43"/>
+      <c r="AS27" s="43"/>
+      <c r="AT27" s="43"/>
+      <c r="AU27" s="43"/>
+      <c r="AV27" s="43"/>
+      <c r="AW27" s="43"/>
+      <c r="AX27" s="43"/>
+      <c r="AY27" s="43"/>
+      <c r="AZ27" s="43"/>
+      <c r="BA27" s="43"/>
+      <c r="BB27" s="43"/>
+      <c r="BC27" s="43"/>
+      <c r="BD27" s="43"/>
+      <c r="BE27" s="43"/>
+      <c r="BF27" s="43"/>
+      <c r="BG27" s="43"/>
+      <c r="BH27" s="43"/>
+      <c r="BI27" s="43"/>
+      <c r="BJ27" s="43"/>
+      <c r="BK27" s="43"/>
+      <c r="BL27" s="43"/>
+      <c r="BM27" s="43"/>
+      <c r="BN27" s="43"/>
+      <c r="BO27" s="43"/>
+      <c r="BP27" s="43"/>
+      <c r="BQ27" s="43"/>
+      <c r="BR27" s="43"/>
+      <c r="BS27" s="43"/>
+      <c r="BT27" s="43"/>
+      <c r="BU27" s="43"/>
+      <c r="BV27" s="43"/>
+      <c r="BW27" s="43"/>
+      <c r="BX27" s="43"/>
+      <c r="BY27" s="43"/>
+      <c r="BZ27" s="43"/>
+      <c r="CA27" s="43"/>
+      <c r="CB27" s="43"/>
+    </row>
+    <row r="28" spans="1:80" s="24" customFormat="1" ht="37.299999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.2</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="62"/>
+      <c r="E28" s="68">
+        <v>44733</v>
+      </c>
+      <c r="F28" s="71">
+        <v>44734</v>
+      </c>
+      <c r="G28" s="25">
+        <f>_xlfn.DAYS(F28,E28)</f>
         <v>1</v>
       </c>
-      <c r="I14" s="27" t="str">
+      <c r="H28" s="26">
+        <v>1</v>
+      </c>
+      <c r="I28" s="27">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="J28" s="40"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="43"/>
+      <c r="AB28" s="43"/>
+      <c r="AC28" s="43"/>
+      <c r="AD28" s="43"/>
+      <c r="AE28" s="43"/>
+      <c r="AF28" s="43"/>
+      <c r="AG28" s="43"/>
+      <c r="AH28" s="43"/>
+      <c r="AI28" s="43"/>
+      <c r="AJ28" s="43"/>
+      <c r="AK28" s="43"/>
+      <c r="AL28" s="43"/>
+      <c r="AM28" s="43"/>
+      <c r="AN28" s="43"/>
+      <c r="AO28" s="43"/>
+      <c r="AP28" s="43"/>
+      <c r="AQ28" s="43"/>
+      <c r="AR28" s="43"/>
+      <c r="AS28" s="43"/>
+      <c r="AT28" s="43"/>
+      <c r="AU28" s="43"/>
+      <c r="AV28" s="43"/>
+      <c r="AW28" s="43"/>
+      <c r="AX28" s="43"/>
+      <c r="AY28" s="43"/>
+      <c r="AZ28" s="43"/>
+      <c r="BA28" s="43"/>
+      <c r="BB28" s="43"/>
+      <c r="BC28" s="43"/>
+      <c r="BD28" s="43"/>
+      <c r="BE28" s="43"/>
+      <c r="BF28" s="43"/>
+      <c r="BG28" s="43"/>
+      <c r="BH28" s="43"/>
+      <c r="BI28" s="43"/>
+      <c r="BJ28" s="43"/>
+      <c r="BK28" s="43"/>
+      <c r="BL28" s="43"/>
+      <c r="BM28" s="43"/>
+      <c r="BN28" s="43"/>
+      <c r="BO28" s="43"/>
+      <c r="BP28" s="43"/>
+      <c r="BQ28" s="43"/>
+      <c r="BR28" s="43"/>
+      <c r="BS28" s="43"/>
+      <c r="BT28" s="43"/>
+      <c r="BU28" s="43"/>
+      <c r="BV28" s="43"/>
+      <c r="BW28" s="43"/>
+      <c r="BX28" s="43"/>
+      <c r="BY28" s="43"/>
+      <c r="BZ28" s="43"/>
+      <c r="CA28" s="43"/>
+      <c r="CB28" s="43"/>
+    </row>
+    <row r="29" spans="1:80" s="18" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>5</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="22" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="46"/>
-      <c r="AE14" s="46"/>
-      <c r="AF14" s="46"/>
-      <c r="AG14" s="46"/>
-      <c r="AH14" s="46"/>
-      <c r="AI14" s="46"/>
-      <c r="AJ14" s="46"/>
-      <c r="AK14" s="46"/>
-      <c r="AL14" s="46"/>
-      <c r="AM14" s="46"/>
-      <c r="AN14" s="46"/>
-      <c r="AO14" s="46"/>
-      <c r="AP14" s="46"/>
-      <c r="AQ14" s="46"/>
-      <c r="AR14" s="46"/>
-      <c r="AS14" s="46"/>
-      <c r="AT14" s="46"/>
-      <c r="AU14" s="46"/>
-      <c r="AV14" s="46"/>
-      <c r="AW14" s="46"/>
-      <c r="AX14" s="46"/>
-      <c r="AY14" s="46"/>
-      <c r="AZ14" s="46"/>
-      <c r="BA14" s="46"/>
-      <c r="BB14" s="46"/>
-      <c r="BC14" s="46"/>
-      <c r="BD14" s="46"/>
-      <c r="BE14" s="46"/>
-      <c r="BF14" s="46"/>
-      <c r="BG14" s="46"/>
-      <c r="BH14" s="46"/>
-      <c r="BI14" s="46"/>
-      <c r="BJ14" s="46"/>
-      <c r="BK14" s="46"/>
-      <c r="BL14" s="46"/>
-      <c r="BM14" s="46"/>
-      <c r="BN14" s="46"/>
-      <c r="BO14" s="46"/>
-      <c r="BP14" s="46"/>
-      <c r="BQ14" s="46"/>
-      <c r="BR14" s="46"/>
-      <c r="BS14" s="46"/>
-      <c r="BT14" s="46"/>
-      <c r="BU14" s="46"/>
-      <c r="BV14" s="46"/>
-      <c r="BW14" s="46"/>
-      <c r="BX14" s="46"/>
-      <c r="BY14" s="46"/>
-      <c r="BZ14" s="46"/>
-      <c r="CA14" s="46"/>
-      <c r="CB14" s="46"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="44"/>
+      <c r="AB29" s="44"/>
+      <c r="AC29" s="44"/>
+      <c r="AD29" s="44"/>
+      <c r="AE29" s="44"/>
+      <c r="AF29" s="44"/>
+      <c r="AG29" s="44"/>
+      <c r="AH29" s="44"/>
+      <c r="AI29" s="44"/>
+      <c r="AJ29" s="44"/>
+      <c r="AK29" s="44"/>
+      <c r="AL29" s="44"/>
+      <c r="AM29" s="44"/>
+      <c r="AN29" s="44"/>
+      <c r="AO29" s="44"/>
+      <c r="AP29" s="44"/>
+      <c r="AQ29" s="44"/>
+      <c r="AR29" s="44"/>
+      <c r="AS29" s="44"/>
+      <c r="AT29" s="44"/>
+      <c r="AU29" s="44"/>
+      <c r="AV29" s="44"/>
+      <c r="AW29" s="44"/>
+      <c r="AX29" s="44"/>
+      <c r="AY29" s="44"/>
+      <c r="AZ29" s="44"/>
+      <c r="BA29" s="44"/>
+      <c r="BB29" s="44"/>
+      <c r="BC29" s="44"/>
+      <c r="BD29" s="44"/>
+      <c r="BE29" s="44"/>
+      <c r="BF29" s="44"/>
+      <c r="BG29" s="44"/>
+      <c r="BH29" s="44"/>
+      <c r="BI29" s="44"/>
+      <c r="BJ29" s="44"/>
+      <c r="BK29" s="44"/>
+      <c r="BL29" s="44"/>
+      <c r="BM29" s="44"/>
+      <c r="BN29" s="44"/>
+      <c r="BO29" s="44"/>
+      <c r="BP29" s="44"/>
+      <c r="BQ29" s="44"/>
+      <c r="BR29" s="44"/>
+      <c r="BS29" s="44"/>
+      <c r="BT29" s="44"/>
+      <c r="BU29" s="44"/>
+      <c r="BV29" s="44"/>
+      <c r="BW29" s="44"/>
+      <c r="BX29" s="44"/>
+      <c r="BY29" s="44"/>
+      <c r="BZ29" s="44"/>
+      <c r="CA29" s="44"/>
+      <c r="CB29" s="44"/>
     </row>
-    <row r="15" spans="1:80" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="str">
-        <f t="shared" si="21"/>
-        <v>2.2</v>
-      </c>
-      <c r="B15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="25">
-        <v>1</v>
-      </c>
-      <c r="H15" s="26">
-        <v>1</v>
-      </c>
-      <c r="I15" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J15" s="40"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="46"/>
-      <c r="AB15" s="46"/>
-      <c r="AC15" s="46"/>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="46"/>
-      <c r="AG15" s="46"/>
-      <c r="AH15" s="46"/>
-      <c r="AI15" s="46"/>
-      <c r="AJ15" s="46"/>
-      <c r="AK15" s="46"/>
-      <c r="AL15" s="46"/>
-      <c r="AM15" s="46"/>
-      <c r="AN15" s="46"/>
-      <c r="AO15" s="46"/>
-      <c r="AP15" s="46"/>
-      <c r="AQ15" s="46"/>
-      <c r="AR15" s="46"/>
-      <c r="AS15" s="46"/>
-      <c r="AT15" s="46"/>
-      <c r="AU15" s="46"/>
-      <c r="AV15" s="46"/>
-      <c r="AW15" s="46"/>
-      <c r="AX15" s="46"/>
-      <c r="AY15" s="46"/>
-      <c r="AZ15" s="46"/>
-      <c r="BA15" s="46"/>
-      <c r="BB15" s="46"/>
-      <c r="BC15" s="46"/>
-      <c r="BD15" s="46"/>
-      <c r="BE15" s="46"/>
-      <c r="BF15" s="46"/>
-      <c r="BG15" s="46"/>
-      <c r="BH15" s="46"/>
-      <c r="BI15" s="46"/>
-      <c r="BJ15" s="46"/>
-      <c r="BK15" s="46"/>
-      <c r="BL15" s="46"/>
-      <c r="BM15" s="46"/>
-      <c r="BN15" s="46"/>
-      <c r="BO15" s="46"/>
-      <c r="BP15" s="46"/>
-      <c r="BQ15" s="46"/>
-      <c r="BR15" s="46"/>
-      <c r="BS15" s="46"/>
-      <c r="BT15" s="46"/>
-      <c r="BU15" s="46"/>
-      <c r="BV15" s="46"/>
-      <c r="BW15" s="46"/>
-      <c r="BX15" s="46"/>
-      <c r="BY15" s="46"/>
-      <c r="BZ15" s="46"/>
-      <c r="CA15" s="46"/>
-      <c r="CB15" s="46"/>
-    </row>
-    <row r="16" spans="1:80" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="str">
-        <f t="shared" si="21"/>
-        <v>2.3</v>
-      </c>
-      <c r="B16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="25">
-        <v>5</v>
-      </c>
-      <c r="H16" s="26">
-        <v>1</v>
-      </c>
-      <c r="I16" s="27" t="str">
-        <f>IF(OR(F16=0,E16=0)," - ",NETWORKDAYS(E16,F16))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J16" s="40"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="46"/>
-      <c r="AC16" s="46"/>
-      <c r="AD16" s="46"/>
-      <c r="AE16" s="46"/>
-      <c r="AF16" s="46"/>
-      <c r="AG16" s="46"/>
-      <c r="AH16" s="46"/>
-      <c r="AI16" s="46"/>
-      <c r="AJ16" s="46"/>
-      <c r="AK16" s="46"/>
-      <c r="AL16" s="46"/>
-      <c r="AM16" s="46"/>
-      <c r="AN16" s="46"/>
-      <c r="AO16" s="46"/>
-      <c r="AP16" s="46"/>
-      <c r="AQ16" s="46"/>
-      <c r="AR16" s="46"/>
-      <c r="AS16" s="46"/>
-      <c r="AT16" s="46"/>
-      <c r="AU16" s="46"/>
-      <c r="AV16" s="46"/>
-      <c r="AW16" s="46"/>
-      <c r="AX16" s="46"/>
-      <c r="AY16" s="46"/>
-      <c r="AZ16" s="46"/>
-      <c r="BA16" s="46"/>
-      <c r="BB16" s="46"/>
-      <c r="BC16" s="46"/>
-      <c r="BD16" s="46"/>
-      <c r="BE16" s="46"/>
-      <c r="BF16" s="46"/>
-      <c r="BG16" s="46"/>
-      <c r="BH16" s="46"/>
-      <c r="BI16" s="46"/>
-      <c r="BJ16" s="46"/>
-      <c r="BK16" s="46"/>
-      <c r="BL16" s="46"/>
-      <c r="BM16" s="46"/>
-      <c r="BN16" s="46"/>
-      <c r="BO16" s="46"/>
-      <c r="BP16" s="46"/>
-      <c r="BQ16" s="46"/>
-      <c r="BR16" s="46"/>
-      <c r="BS16" s="46"/>
-      <c r="BT16" s="46"/>
-      <c r="BU16" s="46"/>
-      <c r="BV16" s="46"/>
-      <c r="BW16" s="46"/>
-      <c r="BX16" s="46"/>
-      <c r="BY16" s="46"/>
-      <c r="BZ16" s="46"/>
-      <c r="CA16" s="46"/>
-      <c r="CB16" s="46"/>
-    </row>
-    <row r="17" spans="1:80" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="str">
-        <f t="shared" si="21"/>
-        <v>2.4</v>
-      </c>
-      <c r="B17" s="65"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="25">
-        <v>5</v>
-      </c>
-      <c r="H17" s="26">
-        <v>1</v>
-      </c>
-      <c r="I17" s="27" t="str">
-        <f>IF(OR(F17=0,E17=0)," - ",NETWORKDAYS(E17,F17))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J17" s="40"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="46"/>
-      <c r="AB17" s="46"/>
-      <c r="AC17" s="46"/>
-      <c r="AD17" s="46"/>
-      <c r="AE17" s="46"/>
-      <c r="AF17" s="46"/>
-      <c r="AG17" s="46"/>
-      <c r="AH17" s="46"/>
-      <c r="AI17" s="46"/>
-      <c r="AJ17" s="46"/>
-      <c r="AK17" s="46"/>
-      <c r="AL17" s="46"/>
-      <c r="AM17" s="46"/>
-      <c r="AN17" s="46"/>
-      <c r="AO17" s="46"/>
-      <c r="AP17" s="46"/>
-      <c r="AQ17" s="46"/>
-      <c r="AR17" s="46"/>
-      <c r="AS17" s="46"/>
-      <c r="AT17" s="46"/>
-      <c r="AU17" s="46"/>
-      <c r="AV17" s="46"/>
-      <c r="AW17" s="46"/>
-      <c r="AX17" s="46"/>
-      <c r="AY17" s="46"/>
-      <c r="AZ17" s="46"/>
-      <c r="BA17" s="46"/>
-      <c r="BB17" s="46"/>
-      <c r="BC17" s="46"/>
-      <c r="BD17" s="46"/>
-      <c r="BE17" s="46"/>
-      <c r="BF17" s="46"/>
-      <c r="BG17" s="46"/>
-      <c r="BH17" s="46"/>
-      <c r="BI17" s="46"/>
-      <c r="BJ17" s="46"/>
-      <c r="BK17" s="46"/>
-      <c r="BL17" s="46"/>
-      <c r="BM17" s="46"/>
-      <c r="BN17" s="46"/>
-      <c r="BO17" s="46"/>
-      <c r="BP17" s="46"/>
-      <c r="BQ17" s="46"/>
-      <c r="BR17" s="46"/>
-      <c r="BS17" s="46"/>
-      <c r="BT17" s="46"/>
-      <c r="BU17" s="46"/>
-      <c r="BV17" s="46"/>
-      <c r="BW17" s="46"/>
-      <c r="BX17" s="46"/>
-      <c r="BY17" s="46"/>
-      <c r="BZ17" s="46"/>
-      <c r="CA17" s="46"/>
-      <c r="CB17" s="46"/>
-    </row>
-    <row r="18" spans="1:80" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="str">
-        <f t="shared" si="21"/>
-        <v>2.5</v>
-      </c>
-      <c r="B18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="25">
-        <v>4</v>
-      </c>
-      <c r="H18" s="26">
-        <v>1</v>
-      </c>
-      <c r="I18" s="27" t="str">
-        <f>IF(OR(F18=0,E18=0)," - ",NETWORKDAYS(E18,F18))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="46"/>
-      <c r="AI18" s="46"/>
-      <c r="AJ18" s="46"/>
-      <c r="AK18" s="46"/>
-      <c r="AL18" s="46"/>
-      <c r="AM18" s="46"/>
-      <c r="AN18" s="46"/>
-      <c r="AO18" s="46"/>
-      <c r="AP18" s="46"/>
-      <c r="AQ18" s="46"/>
-      <c r="AR18" s="46"/>
-      <c r="AS18" s="46"/>
-      <c r="AT18" s="46"/>
-      <c r="AU18" s="46"/>
-      <c r="AV18" s="46"/>
-      <c r="AW18" s="46"/>
-      <c r="AX18" s="46"/>
-      <c r="AY18" s="46"/>
-      <c r="AZ18" s="46"/>
-      <c r="BA18" s="46"/>
-      <c r="BB18" s="46"/>
-      <c r="BC18" s="46"/>
-      <c r="BD18" s="46"/>
-      <c r="BE18" s="46"/>
-      <c r="BF18" s="46"/>
-      <c r="BG18" s="46"/>
-      <c r="BH18" s="46"/>
-      <c r="BI18" s="46"/>
-      <c r="BJ18" s="46"/>
-      <c r="BK18" s="46"/>
-      <c r="BL18" s="46"/>
-      <c r="BM18" s="46"/>
-      <c r="BN18" s="46"/>
-      <c r="BO18" s="46"/>
-      <c r="BP18" s="46"/>
-      <c r="BQ18" s="46"/>
-      <c r="BR18" s="46"/>
-      <c r="BS18" s="46"/>
-      <c r="BT18" s="46"/>
-      <c r="BU18" s="46"/>
-      <c r="BV18" s="46"/>
-      <c r="BW18" s="46"/>
-      <c r="BX18" s="46"/>
-      <c r="BY18" s="46"/>
-      <c r="BZ18" s="46"/>
-      <c r="CA18" s="46"/>
-      <c r="CB18" s="46"/>
-    </row>
-    <row r="19" spans="1:80" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="str">
-        <f t="shared" si="21"/>
-        <v>2.6</v>
-      </c>
-      <c r="B19" s="65"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="25">
-        <v>7</v>
-      </c>
-      <c r="H19" s="26">
-        <v>1</v>
-      </c>
-      <c r="I19" s="27" t="str">
-        <f>IF(OR(F19=0,E19=0)," - ",NETWORKDAYS(E19,F19))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J19" s="40"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="46"/>
-      <c r="AD19" s="46"/>
-      <c r="AE19" s="46"/>
-      <c r="AF19" s="46"/>
-      <c r="AG19" s="46"/>
-      <c r="AH19" s="46"/>
-      <c r="AI19" s="46"/>
-      <c r="AJ19" s="46"/>
-      <c r="AK19" s="46"/>
-      <c r="AL19" s="46"/>
-      <c r="AM19" s="46"/>
-      <c r="AN19" s="46"/>
-      <c r="AO19" s="46"/>
-      <c r="AP19" s="46"/>
-      <c r="AQ19" s="46"/>
-      <c r="AR19" s="46"/>
-      <c r="AS19" s="46"/>
-      <c r="AT19" s="46"/>
-      <c r="AU19" s="46"/>
-      <c r="AV19" s="46"/>
-      <c r="AW19" s="46"/>
-      <c r="AX19" s="46"/>
-      <c r="AY19" s="46"/>
-      <c r="AZ19" s="46"/>
-      <c r="BA19" s="46"/>
-      <c r="BB19" s="46"/>
-      <c r="BC19" s="46"/>
-      <c r="BD19" s="46"/>
-      <c r="BE19" s="46"/>
-      <c r="BF19" s="46"/>
-      <c r="BG19" s="46"/>
-      <c r="BH19" s="46"/>
-      <c r="BI19" s="46"/>
-      <c r="BJ19" s="46"/>
-      <c r="BK19" s="46"/>
-      <c r="BL19" s="46"/>
-      <c r="BM19" s="46"/>
-      <c r="BN19" s="46"/>
-      <c r="BO19" s="46"/>
-      <c r="BP19" s="46"/>
-      <c r="BQ19" s="46"/>
-      <c r="BR19" s="46"/>
-      <c r="BS19" s="46"/>
-      <c r="BT19" s="46"/>
-      <c r="BU19" s="46"/>
-      <c r="BV19" s="46"/>
-      <c r="BW19" s="46"/>
-      <c r="BX19" s="46"/>
-      <c r="BY19" s="46"/>
-      <c r="BZ19" s="46"/>
-      <c r="CA19" s="46"/>
-      <c r="CB19" s="46"/>
-    </row>
-    <row r="20" spans="1:80" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>3</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44" t="str">
-        <f t="shared" ref="F10:F29" si="23">IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J20" s="41"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="48"/>
-      <c r="AD20" s="48"/>
-      <c r="AE20" s="48"/>
-      <c r="AF20" s="48"/>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="48"/>
-      <c r="AI20" s="48"/>
-      <c r="AJ20" s="48"/>
-      <c r="AK20" s="48"/>
-      <c r="AL20" s="48"/>
-      <c r="AM20" s="48"/>
-      <c r="AN20" s="48"/>
-      <c r="AO20" s="48"/>
-      <c r="AP20" s="48"/>
-      <c r="AQ20" s="48"/>
-      <c r="AR20" s="48"/>
-      <c r="AS20" s="48"/>
-      <c r="AT20" s="48"/>
-      <c r="AU20" s="48"/>
-      <c r="AV20" s="48"/>
-      <c r="AW20" s="48"/>
-      <c r="AX20" s="48"/>
-      <c r="AY20" s="48"/>
-      <c r="AZ20" s="48"/>
-      <c r="BA20" s="48"/>
-      <c r="BB20" s="48"/>
-      <c r="BC20" s="48"/>
-      <c r="BD20" s="48"/>
-      <c r="BE20" s="48"/>
-      <c r="BF20" s="48"/>
-      <c r="BG20" s="48"/>
-      <c r="BH20" s="48"/>
-      <c r="BI20" s="48"/>
-      <c r="BJ20" s="48"/>
-      <c r="BK20" s="48"/>
-      <c r="BL20" s="48"/>
-      <c r="BM20" s="48"/>
-      <c r="BN20" s="48"/>
-      <c r="BO20" s="48"/>
-      <c r="BP20" s="48"/>
-      <c r="BQ20" s="48"/>
-      <c r="BR20" s="48"/>
-      <c r="BS20" s="48"/>
-      <c r="BT20" s="48"/>
-      <c r="BU20" s="48"/>
-      <c r="BV20" s="48"/>
-      <c r="BW20" s="48"/>
-      <c r="BX20" s="48"/>
-      <c r="BY20" s="48"/>
-      <c r="BZ20" s="48"/>
-      <c r="CA20" s="48"/>
-      <c r="CB20" s="48"/>
-    </row>
-    <row r="21" spans="1:80" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
-      </c>
-      <c r="B21" s="65"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="25">
-        <v>1</v>
-      </c>
-      <c r="H21" s="26">
-        <v>1</v>
-      </c>
-      <c r="I21" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J21" s="40"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="46"/>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="46"/>
-      <c r="AE21" s="46"/>
-      <c r="AF21" s="46"/>
-      <c r="AG21" s="46"/>
-      <c r="AH21" s="46"/>
-      <c r="AI21" s="46"/>
-      <c r="AJ21" s="46"/>
-      <c r="AK21" s="46"/>
-      <c r="AL21" s="46"/>
-      <c r="AM21" s="46"/>
-      <c r="AN21" s="46"/>
-      <c r="AO21" s="46"/>
-      <c r="AP21" s="46"/>
-      <c r="AQ21" s="46"/>
-      <c r="AR21" s="46"/>
-      <c r="AS21" s="46"/>
-      <c r="AT21" s="46"/>
-      <c r="AU21" s="46"/>
-      <c r="AV21" s="46"/>
-      <c r="AW21" s="46"/>
-      <c r="AX21" s="46"/>
-      <c r="AY21" s="46"/>
-      <c r="AZ21" s="46"/>
-      <c r="BA21" s="46"/>
-      <c r="BB21" s="46"/>
-      <c r="BC21" s="46"/>
-      <c r="BD21" s="46"/>
-      <c r="BE21" s="46"/>
-      <c r="BF21" s="46"/>
-      <c r="BG21" s="46"/>
-      <c r="BH21" s="46"/>
-      <c r="BI21" s="46"/>
-      <c r="BJ21" s="46"/>
-      <c r="BK21" s="46"/>
-      <c r="BL21" s="46"/>
-      <c r="BM21" s="46"/>
-      <c r="BN21" s="46"/>
-      <c r="BO21" s="46"/>
-      <c r="BP21" s="46"/>
-      <c r="BQ21" s="46"/>
-      <c r="BR21" s="46"/>
-      <c r="BS21" s="46"/>
-      <c r="BT21" s="46"/>
-      <c r="BU21" s="46"/>
-      <c r="BV21" s="46"/>
-      <c r="BW21" s="46"/>
-      <c r="BX21" s="46"/>
-      <c r="BY21" s="46"/>
-      <c r="BZ21" s="46"/>
-      <c r="CA21" s="46"/>
-      <c r="CB21" s="46"/>
-    </row>
-    <row r="22" spans="1:80" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
-      </c>
-      <c r="B22" s="65"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="25">
-        <v>1</v>
-      </c>
-      <c r="H22" s="26">
-        <v>1</v>
-      </c>
-      <c r="I22" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J22" s="40"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="46"/>
-      <c r="AB22" s="46"/>
-      <c r="AC22" s="46"/>
-      <c r="AD22" s="46"/>
-      <c r="AE22" s="46"/>
-      <c r="AF22" s="46"/>
-      <c r="AG22" s="46"/>
-      <c r="AH22" s="46"/>
-      <c r="AI22" s="46"/>
-      <c r="AJ22" s="46"/>
-      <c r="AK22" s="46"/>
-      <c r="AL22" s="46"/>
-      <c r="AM22" s="46"/>
-      <c r="AN22" s="46"/>
-      <c r="AO22" s="46"/>
-      <c r="AP22" s="46"/>
-      <c r="AQ22" s="46"/>
-      <c r="AR22" s="46"/>
-      <c r="AS22" s="46"/>
-      <c r="AT22" s="46"/>
-      <c r="AU22" s="46"/>
-      <c r="AV22" s="46"/>
-      <c r="AW22" s="46"/>
-      <c r="AX22" s="46"/>
-      <c r="AY22" s="46"/>
-      <c r="AZ22" s="46"/>
-      <c r="BA22" s="46"/>
-      <c r="BB22" s="46"/>
-      <c r="BC22" s="46"/>
-      <c r="BD22" s="46"/>
-      <c r="BE22" s="46"/>
-      <c r="BF22" s="46"/>
-      <c r="BG22" s="46"/>
-      <c r="BH22" s="46"/>
-      <c r="BI22" s="46"/>
-      <c r="BJ22" s="46"/>
-      <c r="BK22" s="46"/>
-      <c r="BL22" s="46"/>
-      <c r="BM22" s="46"/>
-      <c r="BN22" s="46"/>
-      <c r="BO22" s="46"/>
-      <c r="BP22" s="46"/>
-      <c r="BQ22" s="46"/>
-      <c r="BR22" s="46"/>
-      <c r="BS22" s="46"/>
-      <c r="BT22" s="46"/>
-      <c r="BU22" s="46"/>
-      <c r="BV22" s="46"/>
-      <c r="BW22" s="46"/>
-      <c r="BX22" s="46"/>
-      <c r="BY22" s="46"/>
-      <c r="BZ22" s="46"/>
-      <c r="CA22" s="46"/>
-      <c r="CB22" s="46"/>
-    </row>
-    <row r="23" spans="1:80" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.3</v>
-      </c>
-      <c r="B23" s="65"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="25">
-        <v>1</v>
-      </c>
-      <c r="H23" s="26">
-        <v>1</v>
-      </c>
-      <c r="I23" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J23" s="40"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="46"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="46"/>
-      <c r="AD23" s="46"/>
-      <c r="AE23" s="46"/>
-      <c r="AF23" s="46"/>
-      <c r="AG23" s="46"/>
-      <c r="AH23" s="46"/>
-      <c r="AI23" s="46"/>
-      <c r="AJ23" s="46"/>
-      <c r="AK23" s="46"/>
-      <c r="AL23" s="46"/>
-      <c r="AM23" s="46"/>
-      <c r="AN23" s="46"/>
-      <c r="AO23" s="46"/>
-      <c r="AP23" s="46"/>
-      <c r="AQ23" s="46"/>
-      <c r="AR23" s="46"/>
-      <c r="AS23" s="46"/>
-      <c r="AT23" s="46"/>
-      <c r="AU23" s="46"/>
-      <c r="AV23" s="46"/>
-      <c r="AW23" s="46"/>
-      <c r="AX23" s="46"/>
-      <c r="AY23" s="46"/>
-      <c r="AZ23" s="46"/>
-      <c r="BA23" s="46"/>
-      <c r="BB23" s="46"/>
-      <c r="BC23" s="46"/>
-      <c r="BD23" s="46"/>
-      <c r="BE23" s="46"/>
-      <c r="BF23" s="46"/>
-      <c r="BG23" s="46"/>
-      <c r="BH23" s="46"/>
-      <c r="BI23" s="46"/>
-      <c r="BJ23" s="46"/>
-      <c r="BK23" s="46"/>
-      <c r="BL23" s="46"/>
-      <c r="BM23" s="46"/>
-      <c r="BN23" s="46"/>
-      <c r="BO23" s="46"/>
-      <c r="BP23" s="46"/>
-      <c r="BQ23" s="46"/>
-      <c r="BR23" s="46"/>
-      <c r="BS23" s="46"/>
-      <c r="BT23" s="46"/>
-      <c r="BU23" s="46"/>
-      <c r="BV23" s="46"/>
-      <c r="BW23" s="46"/>
-      <c r="BX23" s="46"/>
-      <c r="BY23" s="46"/>
-      <c r="BZ23" s="46"/>
-      <c r="CA23" s="46"/>
-      <c r="CB23" s="46"/>
-    </row>
-    <row r="24" spans="1:80" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.4</v>
-      </c>
-      <c r="B24" s="65"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="25">
-        <v>2</v>
-      </c>
-      <c r="H24" s="26">
-        <v>1</v>
-      </c>
-      <c r="I24" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J24" s="40"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="46"/>
-      <c r="AB24" s="46"/>
-      <c r="AC24" s="46"/>
-      <c r="AD24" s="46"/>
-      <c r="AE24" s="46"/>
-      <c r="AF24" s="46"/>
-      <c r="AG24" s="46"/>
-      <c r="AH24" s="46"/>
-      <c r="AI24" s="46"/>
-      <c r="AJ24" s="46"/>
-      <c r="AK24" s="46"/>
-      <c r="AL24" s="46"/>
-      <c r="AM24" s="46"/>
-      <c r="AN24" s="46"/>
-      <c r="AO24" s="46"/>
-      <c r="AP24" s="46"/>
-      <c r="AQ24" s="46"/>
-      <c r="AR24" s="46"/>
-      <c r="AS24" s="46"/>
-      <c r="AT24" s="46"/>
-      <c r="AU24" s="46"/>
-      <c r="AV24" s="46"/>
-      <c r="AW24" s="46"/>
-      <c r="AX24" s="46"/>
-      <c r="AY24" s="46"/>
-      <c r="AZ24" s="46"/>
-      <c r="BA24" s="46"/>
-      <c r="BB24" s="46"/>
-      <c r="BC24" s="46"/>
-      <c r="BD24" s="46"/>
-      <c r="BE24" s="46"/>
-      <c r="BF24" s="46"/>
-      <c r="BG24" s="46"/>
-      <c r="BH24" s="46"/>
-      <c r="BI24" s="46"/>
-      <c r="BJ24" s="46"/>
-      <c r="BK24" s="46"/>
-      <c r="BL24" s="46"/>
-      <c r="BM24" s="46"/>
-      <c r="BN24" s="46"/>
-      <c r="BO24" s="46"/>
-      <c r="BP24" s="46"/>
-      <c r="BQ24" s="46"/>
-      <c r="BR24" s="46"/>
-      <c r="BS24" s="46"/>
-      <c r="BT24" s="46"/>
-      <c r="BU24" s="46"/>
-      <c r="BV24" s="46"/>
-      <c r="BW24" s="46"/>
-      <c r="BX24" s="46"/>
-      <c r="BY24" s="46"/>
-      <c r="BZ24" s="46"/>
-      <c r="CA24" s="46"/>
-      <c r="CB24" s="46"/>
-    </row>
-    <row r="25" spans="1:80" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>4</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J25" s="41"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="48"/>
-      <c r="AA25" s="48"/>
-      <c r="AB25" s="48"/>
-      <c r="AC25" s="48"/>
-      <c r="AD25" s="48"/>
-      <c r="AE25" s="48"/>
-      <c r="AF25" s="48"/>
-      <c r="AG25" s="48"/>
-      <c r="AH25" s="48"/>
-      <c r="AI25" s="48"/>
-      <c r="AJ25" s="48"/>
-      <c r="AK25" s="48"/>
-      <c r="AL25" s="48"/>
-      <c r="AM25" s="48"/>
-      <c r="AN25" s="48"/>
-      <c r="AO25" s="48"/>
-      <c r="AP25" s="48"/>
-      <c r="AQ25" s="48"/>
-      <c r="AR25" s="48"/>
-      <c r="AS25" s="48"/>
-      <c r="AT25" s="48"/>
-      <c r="AU25" s="48"/>
-      <c r="AV25" s="48"/>
-      <c r="AW25" s="48"/>
-      <c r="AX25" s="48"/>
-      <c r="AY25" s="48"/>
-      <c r="AZ25" s="48"/>
-      <c r="BA25" s="48"/>
-      <c r="BB25" s="48"/>
-      <c r="BC25" s="48"/>
-      <c r="BD25" s="48"/>
-      <c r="BE25" s="48"/>
-      <c r="BF25" s="48"/>
-      <c r="BG25" s="48"/>
-      <c r="BH25" s="48"/>
-      <c r="BI25" s="48"/>
-      <c r="BJ25" s="48"/>
-      <c r="BK25" s="48"/>
-      <c r="BL25" s="48"/>
-      <c r="BM25" s="48"/>
-      <c r="BN25" s="48"/>
-      <c r="BO25" s="48"/>
-      <c r="BP25" s="48"/>
-      <c r="BQ25" s="48"/>
-      <c r="BR25" s="48"/>
-      <c r="BS25" s="48"/>
-      <c r="BT25" s="48"/>
-      <c r="BU25" s="48"/>
-      <c r="BV25" s="48"/>
-      <c r="BW25" s="48"/>
-      <c r="BX25" s="48"/>
-      <c r="BY25" s="48"/>
-      <c r="BZ25" s="48"/>
-      <c r="CA25" s="48"/>
-      <c r="CB25" s="48"/>
-    </row>
-    <row r="26" spans="1:80" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
-      </c>
-      <c r="B26" s="65"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="26">
-        <v>1</v>
-      </c>
-      <c r="I26" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J26" s="40"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="46"/>
-      <c r="AB26" s="46"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="46"/>
-      <c r="AE26" s="46"/>
-      <c r="AF26" s="46"/>
-      <c r="AG26" s="46"/>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="46"/>
-      <c r="AJ26" s="46"/>
-      <c r="AK26" s="46"/>
-      <c r="AL26" s="46"/>
-      <c r="AM26" s="46"/>
-      <c r="AN26" s="46"/>
-      <c r="AO26" s="46"/>
-      <c r="AP26" s="46"/>
-      <c r="AQ26" s="46"/>
-      <c r="AR26" s="46"/>
-      <c r="AS26" s="46"/>
-      <c r="AT26" s="46"/>
-      <c r="AU26" s="46"/>
-      <c r="AV26" s="46"/>
-      <c r="AW26" s="46"/>
-      <c r="AX26" s="46"/>
-      <c r="AY26" s="46"/>
-      <c r="AZ26" s="46"/>
-      <c r="BA26" s="46"/>
-      <c r="BB26" s="46"/>
-      <c r="BC26" s="46"/>
-      <c r="BD26" s="46"/>
-      <c r="BE26" s="46"/>
-      <c r="BF26" s="46"/>
-      <c r="BG26" s="46"/>
-      <c r="BH26" s="46"/>
-      <c r="BI26" s="46"/>
-      <c r="BJ26" s="46"/>
-      <c r="BK26" s="46"/>
-      <c r="BL26" s="46"/>
-      <c r="BM26" s="46"/>
-      <c r="BN26" s="46"/>
-      <c r="BO26" s="46"/>
-      <c r="BP26" s="46"/>
-      <c r="BQ26" s="46"/>
-      <c r="BR26" s="46"/>
-      <c r="BS26" s="46"/>
-      <c r="BT26" s="46"/>
-      <c r="BU26" s="46"/>
-      <c r="BV26" s="46"/>
-      <c r="BW26" s="46"/>
-      <c r="BX26" s="46"/>
-      <c r="BY26" s="46"/>
-      <c r="BZ26" s="46"/>
-      <c r="CA26" s="46"/>
-      <c r="CB26" s="46"/>
-    </row>
-    <row r="27" spans="1:80" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
-      </c>
-      <c r="B27" s="65"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26">
-        <v>1</v>
-      </c>
-      <c r="I27" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J27" s="40"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="46"/>
-      <c r="AA27" s="46"/>
-      <c r="AB27" s="46"/>
-      <c r="AC27" s="46"/>
-      <c r="AD27" s="46"/>
-      <c r="AE27" s="46"/>
-      <c r="AF27" s="46"/>
-      <c r="AG27" s="46"/>
-      <c r="AH27" s="46"/>
-      <c r="AI27" s="46"/>
-      <c r="AJ27" s="46"/>
-      <c r="AK27" s="46"/>
-      <c r="AL27" s="46"/>
-      <c r="AM27" s="46"/>
-      <c r="AN27" s="46"/>
-      <c r="AO27" s="46"/>
-      <c r="AP27" s="46"/>
-      <c r="AQ27" s="46"/>
-      <c r="AR27" s="46"/>
-      <c r="AS27" s="46"/>
-      <c r="AT27" s="46"/>
-      <c r="AU27" s="46"/>
-      <c r="AV27" s="46"/>
-      <c r="AW27" s="46"/>
-      <c r="AX27" s="46"/>
-      <c r="AY27" s="46"/>
-      <c r="AZ27" s="46"/>
-      <c r="BA27" s="46"/>
-      <c r="BB27" s="46"/>
-      <c r="BC27" s="46"/>
-      <c r="BD27" s="46"/>
-      <c r="BE27" s="46"/>
-      <c r="BF27" s="46"/>
-      <c r="BG27" s="46"/>
-      <c r="BH27" s="46"/>
-      <c r="BI27" s="46"/>
-      <c r="BJ27" s="46"/>
-      <c r="BK27" s="46"/>
-      <c r="BL27" s="46"/>
-      <c r="BM27" s="46"/>
-      <c r="BN27" s="46"/>
-      <c r="BO27" s="46"/>
-      <c r="BP27" s="46"/>
-      <c r="BQ27" s="46"/>
-      <c r="BR27" s="46"/>
-      <c r="BS27" s="46"/>
-      <c r="BT27" s="46"/>
-      <c r="BU27" s="46"/>
-      <c r="BV27" s="46"/>
-      <c r="BW27" s="46"/>
-      <c r="BX27" s="46"/>
-      <c r="BY27" s="46"/>
-      <c r="BZ27" s="46"/>
-      <c r="CA27" s="46"/>
-      <c r="CB27" s="46"/>
-    </row>
-    <row r="28" spans="1:80" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>5</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J28" s="41"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="48"/>
-      <c r="AB28" s="48"/>
-      <c r="AC28" s="48"/>
-      <c r="AD28" s="48"/>
-      <c r="AE28" s="48"/>
-      <c r="AF28" s="48"/>
-      <c r="AG28" s="48"/>
-      <c r="AH28" s="48"/>
-      <c r="AI28" s="48"/>
-      <c r="AJ28" s="48"/>
-      <c r="AK28" s="48"/>
-      <c r="AL28" s="48"/>
-      <c r="AM28" s="48"/>
-      <c r="AN28" s="48"/>
-      <c r="AO28" s="48"/>
-      <c r="AP28" s="48"/>
-      <c r="AQ28" s="48"/>
-      <c r="AR28" s="48"/>
-      <c r="AS28" s="48"/>
-      <c r="AT28" s="48"/>
-      <c r="AU28" s="48"/>
-      <c r="AV28" s="48"/>
-      <c r="AW28" s="48"/>
-      <c r="AX28" s="48"/>
-      <c r="AY28" s="48"/>
-      <c r="AZ28" s="48"/>
-      <c r="BA28" s="48"/>
-      <c r="BB28" s="48"/>
-      <c r="BC28" s="48"/>
-      <c r="BD28" s="48"/>
-      <c r="BE28" s="48"/>
-      <c r="BF28" s="48"/>
-      <c r="BG28" s="48"/>
-      <c r="BH28" s="48"/>
-      <c r="BI28" s="48"/>
-      <c r="BJ28" s="48"/>
-      <c r="BK28" s="48"/>
-      <c r="BL28" s="48"/>
-      <c r="BM28" s="48"/>
-      <c r="BN28" s="48"/>
-      <c r="BO28" s="48"/>
-      <c r="BP28" s="48"/>
-      <c r="BQ28" s="48"/>
-      <c r="BR28" s="48"/>
-      <c r="BS28" s="48"/>
-      <c r="BT28" s="48"/>
-      <c r="BU28" s="48"/>
-      <c r="BV28" s="48"/>
-      <c r="BW28" s="48"/>
-      <c r="BX28" s="48"/>
-      <c r="BY28" s="48"/>
-      <c r="BZ28" s="48"/>
-      <c r="CA28" s="48"/>
-      <c r="CB28" s="48"/>
-    </row>
-    <row r="29" spans="1:80" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="str">
+    <row r="30" spans="1:80" s="24" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.1</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="26">
+      <c r="B30" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="62"/>
+      <c r="E30" s="68">
+        <v>44661</v>
+      </c>
+      <c r="F30" s="71">
+        <v>44733</v>
+      </c>
+      <c r="G30" s="25">
+        <f>_xlfn.DAYS(F30,E30)</f>
+        <v>72</v>
+      </c>
+      <c r="H30" s="26">
         <v>1</v>
       </c>
-      <c r="I29" s="27" t="str">
+      <c r="I30" s="27">
         <f t="shared" si="20"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J29" s="40"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="46"/>
-      <c r="AA29" s="46"/>
-      <c r="AB29" s="46"/>
-      <c r="AC29" s="46"/>
-      <c r="AD29" s="46"/>
-      <c r="AE29" s="46"/>
-      <c r="AF29" s="46"/>
-      <c r="AG29" s="46"/>
-      <c r="AH29" s="46"/>
-      <c r="AI29" s="46"/>
-      <c r="AJ29" s="46"/>
-      <c r="AK29" s="46"/>
-      <c r="AL29" s="46"/>
-      <c r="AM29" s="46"/>
-      <c r="AN29" s="46"/>
-      <c r="AO29" s="46"/>
-      <c r="AP29" s="46"/>
-      <c r="AQ29" s="46"/>
-      <c r="AR29" s="46"/>
-      <c r="AS29" s="46"/>
-      <c r="AT29" s="46"/>
-      <c r="AU29" s="46"/>
-      <c r="AV29" s="46"/>
-      <c r="AW29" s="46"/>
-      <c r="AX29" s="46"/>
-      <c r="AY29" s="46"/>
-      <c r="AZ29" s="46"/>
-      <c r="BA29" s="46"/>
-      <c r="BB29" s="46"/>
-      <c r="BC29" s="46"/>
-      <c r="BD29" s="46"/>
-      <c r="BE29" s="46"/>
-      <c r="BF29" s="46"/>
-      <c r="BG29" s="46"/>
-      <c r="BH29" s="46"/>
-      <c r="BI29" s="46"/>
-      <c r="BJ29" s="46"/>
-      <c r="BK29" s="46"/>
-      <c r="BL29" s="46"/>
-      <c r="BM29" s="46"/>
-      <c r="BN29" s="46"/>
-      <c r="BO29" s="46"/>
-      <c r="BP29" s="46"/>
-      <c r="BQ29" s="46"/>
-      <c r="BR29" s="46"/>
-      <c r="BS29" s="46"/>
-      <c r="BT29" s="46"/>
-      <c r="BU29" s="46"/>
-      <c r="BV29" s="46"/>
-      <c r="BW29" s="46"/>
-      <c r="BX29" s="46"/>
-      <c r="BY29" s="46"/>
-      <c r="BZ29" s="46"/>
-      <c r="CA29" s="46"/>
-      <c r="CB29" s="46"/>
+        <v>52</v>
+      </c>
+      <c r="J30" s="40"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="43"/>
+      <c r="AC30" s="43"/>
+      <c r="AD30" s="43"/>
+      <c r="AE30" s="43"/>
+      <c r="AF30" s="43"/>
+      <c r="AG30" s="43"/>
+      <c r="AH30" s="43"/>
+      <c r="AI30" s="43"/>
+      <c r="AJ30" s="43"/>
+      <c r="AK30" s="43"/>
+      <c r="AL30" s="43"/>
+      <c r="AM30" s="43"/>
+      <c r="AN30" s="43"/>
+      <c r="AO30" s="43"/>
+      <c r="AP30" s="43"/>
+      <c r="AQ30" s="43"/>
+      <c r="AR30" s="43"/>
+      <c r="AS30" s="43"/>
+      <c r="AT30" s="43"/>
+      <c r="AU30" s="43"/>
+      <c r="AV30" s="43"/>
+      <c r="AW30" s="43"/>
+      <c r="AX30" s="43"/>
+      <c r="AY30" s="43"/>
+      <c r="AZ30" s="43"/>
+      <c r="BA30" s="43"/>
+      <c r="BB30" s="43"/>
+      <c r="BC30" s="43"/>
+      <c r="BD30" s="43"/>
+      <c r="BE30" s="43"/>
+      <c r="BF30" s="43"/>
+      <c r="BG30" s="43"/>
+      <c r="BH30" s="43"/>
+      <c r="BI30" s="43"/>
+      <c r="BJ30" s="43"/>
+      <c r="BK30" s="43"/>
+      <c r="BL30" s="43"/>
+      <c r="BM30" s="43"/>
+      <c r="BN30" s="43"/>
+      <c r="BO30" s="43"/>
+      <c r="BP30" s="43"/>
+      <c r="BQ30" s="43"/>
+      <c r="BR30" s="43"/>
+      <c r="BS30" s="43"/>
+      <c r="BT30" s="43"/>
+      <c r="BU30" s="43"/>
+      <c r="BV30" s="43"/>
+      <c r="BW30" s="43"/>
+      <c r="BX30" s="43"/>
+      <c r="BY30" s="43"/>
+      <c r="BZ30" s="43"/>
+      <c r="CA30" s="43"/>
+      <c r="CB30" s="43"/>
+    </row>
+    <row r="31" spans="1:80" s="24" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.2</v>
+      </c>
+      <c r="B31" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="62"/>
+      <c r="E31" s="68">
+        <v>44729</v>
+      </c>
+      <c r="F31" s="71">
+        <v>44733</v>
+      </c>
+      <c r="G31" s="25">
+        <f>_xlfn.DAYS(F31,E31)</f>
+        <v>4</v>
+      </c>
+      <c r="H31" s="26">
+        <v>1</v>
+      </c>
+      <c r="I31" s="27">
+        <f t="shared" ref="I31" si="28">IF(OR(F31=0,E31=0)," - ",NETWORKDAYS(E31,F31))</f>
+        <v>3</v>
+      </c>
+      <c r="J31" s="40"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="43"/>
+      <c r="AA31" s="43"/>
+      <c r="AB31" s="43"/>
+      <c r="AC31" s="43"/>
+      <c r="AD31" s="43"/>
+      <c r="AE31" s="43"/>
+      <c r="AF31" s="43"/>
+      <c r="AG31" s="43"/>
+      <c r="AH31" s="43"/>
+      <c r="AI31" s="43"/>
+      <c r="AJ31" s="43"/>
+      <c r="AK31" s="43"/>
+      <c r="AL31" s="43"/>
+      <c r="AM31" s="43"/>
+      <c r="AN31" s="43"/>
+      <c r="AO31" s="43"/>
+      <c r="AP31" s="43"/>
+      <c r="AQ31" s="43"/>
+      <c r="AR31" s="43"/>
+      <c r="AS31" s="43"/>
+      <c r="AT31" s="43"/>
+      <c r="AU31" s="43"/>
+      <c r="AV31" s="43"/>
+      <c r="AW31" s="43"/>
+      <c r="AX31" s="43"/>
+      <c r="AY31" s="43"/>
+      <c r="AZ31" s="43"/>
+      <c r="BA31" s="43"/>
+      <c r="BB31" s="43"/>
+      <c r="BC31" s="43"/>
+      <c r="BD31" s="43"/>
+      <c r="BE31" s="43"/>
+      <c r="BF31" s="43"/>
+      <c r="BG31" s="43"/>
+      <c r="BH31" s="43"/>
+      <c r="BI31" s="43"/>
+      <c r="BJ31" s="43"/>
+      <c r="BK31" s="43"/>
+      <c r="BL31" s="43"/>
+      <c r="BM31" s="43"/>
+      <c r="BN31" s="43"/>
+      <c r="BO31" s="43"/>
+      <c r="BP31" s="43"/>
+      <c r="BQ31" s="43"/>
+      <c r="BR31" s="43"/>
+      <c r="BS31" s="43"/>
+      <c r="BT31" s="43"/>
+      <c r="BU31" s="43"/>
+      <c r="BV31" s="43"/>
+      <c r="BW31" s="43"/>
+      <c r="BX31" s="43"/>
+      <c r="BY31" s="43"/>
+      <c r="BZ31" s="43"/>
+      <c r="CA31" s="43"/>
+      <c r="CB31" s="43"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
@@ -4988,7 +5367,7 @@
     <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H11 H13:H15 H18:H29">
+  <conditionalFormatting sqref="H8:H9 H17:H31 H11:H14">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5003,24 +5382,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:CB7">
-    <cfRule type="expression" dxfId="9" priority="53">
+    <cfRule type="expression" dxfId="5" priority="53">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:CB11 K13:CB15 K18:CB29">
-    <cfRule type="expression" dxfId="8" priority="56">
+  <conditionalFormatting sqref="K8:CB31">
+    <cfRule type="expression" dxfId="4" priority="56">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="57">
+    <cfRule type="expression" dxfId="3" priority="57">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:CB15 K18:CB29 K6:CB11">
-    <cfRule type="expression" dxfId="6" priority="16">
+  <conditionalFormatting sqref="K6:CB9 K17:CB31 K11:CB14">
+    <cfRule type="expression" dxfId="2" priority="16">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+  <conditionalFormatting sqref="H10:H11">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5034,20 +5413,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:CB12">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>AND($E12&lt;=K$6,ROUNDDOWN(($F12-$E12+1)*$H12,0)+$E12-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
-      <formula>AND(NOT(ISBLANK($E12)),$E12&lt;=K$6,$F12&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12:CB12">
-    <cfRule type="expression" dxfId="3" priority="6">
+  <conditionalFormatting sqref="K10:CB11">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16:H17">
+  <conditionalFormatting sqref="H15:H16">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5061,15 +5432,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:CB17">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND($E16&lt;=K$6,ROUNDDOWN(($F16-$E16+1)*$H16,0)+$E16-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>AND(NOT(ISBLANK($E16)),$E16&lt;=K$6,$F16&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16:CB17">
+  <conditionalFormatting sqref="K15:CB16">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -5081,8 +5444,8 @@
   <pageSetup paperSize="8" scale="96" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 E20 E25 E28 G20:H20 G25:H25 G28:H28" unlockedFormula="1"/>
-    <ignoredError sqref="A28 A25 A20" formula="1"/>
+    <ignoredError sqref="H9 E18 E26 E29 G18:H18 G26:H26 G29:H29" unlockedFormula="1"/>
+    <ignoredError sqref="A29 A26 A18" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -5096,13 +5459,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:colOff>97971</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>119743</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>27</xdr:col>
-                    <xdr:colOff>106680</xdr:colOff>
+                    <xdr:colOff>108857</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </to>
@@ -5130,7 +5493,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H11 H13:H15 H18:H29</xm:sqref>
+          <xm:sqref>H8:H9 H17:H31 H11:H14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{39040515-52F3-4094-B202-ACD1080964D7}">
@@ -5145,7 +5508,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H12</xm:sqref>
+          <xm:sqref>H10:H11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FF30FDB5-2757-4765-A192-DEF302ED4FB9}">
@@ -5160,7 +5523,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H16:H17</xm:sqref>
+          <xm:sqref>H15:H16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Project Documentation/GANTT Chart for Major.xlsx
+++ b/Project Documentation/GANTT Chart for Major.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\converge\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204CC944-DD33-4366-87E7-B7E44E1DF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1048F73-C38D-4A87-B8B1-36477939D12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$31</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2006-2018 Vertex42 LLC"</definedName>
@@ -426,7 +426,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>WBS</t>
   </si>
@@ -537,6 +537,9 @@
   </si>
   <si>
     <t>Meeting with CFO Mr Fong for continuous communication surrounding project timeline.</t>
+  </si>
+  <si>
+    <t>Smart Contracts that better facilitate the transfer of assets between companies. Also enable companies to create their own automated contracts for procurement and other financial processes.</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1262,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1453,24 +1456,6 @@
     <xf numFmtId="169" fontId="30" fillId="21" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1478,9 +1463,42 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="35" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2085,11 +2103,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CB31"/>
+  <dimension ref="A1:CB32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -2118,27 +2136,27 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="I1" s="64"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
     </row>
     <row r="2" spans="1:80" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="67" t="s">
@@ -2184,11 +2202,11 @@
       <c r="B4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="81">
+      <c r="C4" s="78">
         <v>44661</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="46"/>
       <c r="G4" s="49" t="s">
         <v>8</v>
@@ -2198,222 +2216,222 @@
       </c>
       <c r="I4" s="47"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="73" t="str">
+      <c r="K4" s="75" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="73" t="str">
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="75" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="73" t="str">
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="75" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="75"/>
-      <c r="AF4" s="73" t="str">
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="75" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="74"/>
-      <c r="AK4" s="74"/>
-      <c r="AL4" s="75"/>
-      <c r="AM4" s="73" t="str">
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="75" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="74"/>
-      <c r="AO4" s="74"/>
-      <c r="AP4" s="74"/>
-      <c r="AQ4" s="74"/>
-      <c r="AR4" s="74"/>
-      <c r="AS4" s="75"/>
-      <c r="AT4" s="73" t="str">
+      <c r="AN4" s="76"/>
+      <c r="AO4" s="76"/>
+      <c r="AP4" s="76"/>
+      <c r="AQ4" s="76"/>
+      <c r="AR4" s="76"/>
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="75" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="74"/>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="75"/>
-      <c r="BA4" s="73" t="str">
+      <c r="AU4" s="76"/>
+      <c r="AV4" s="76"/>
+      <c r="AW4" s="76"/>
+      <c r="AX4" s="76"/>
+      <c r="AY4" s="76"/>
+      <c r="AZ4" s="77"/>
+      <c r="BA4" s="75" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="74"/>
-      <c r="BC4" s="74"/>
-      <c r="BD4" s="74"/>
-      <c r="BE4" s="74"/>
-      <c r="BF4" s="74"/>
-      <c r="BG4" s="75"/>
-      <c r="BH4" s="73" t="str">
+      <c r="BB4" s="76"/>
+      <c r="BC4" s="76"/>
+      <c r="BD4" s="76"/>
+      <c r="BE4" s="76"/>
+      <c r="BF4" s="76"/>
+      <c r="BG4" s="77"/>
+      <c r="BH4" s="75" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="74"/>
-      <c r="BJ4" s="74"/>
-      <c r="BK4" s="74"/>
-      <c r="BL4" s="74"/>
-      <c r="BM4" s="74"/>
-      <c r="BN4" s="75"/>
-      <c r="BO4" s="73" t="str">
+      <c r="BI4" s="76"/>
+      <c r="BJ4" s="76"/>
+      <c r="BK4" s="76"/>
+      <c r="BL4" s="76"/>
+      <c r="BM4" s="76"/>
+      <c r="BN4" s="77"/>
+      <c r="BO4" s="75" t="str">
         <f>"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BP4" s="74"/>
-      <c r="BQ4" s="74"/>
-      <c r="BR4" s="74"/>
-      <c r="BS4" s="74"/>
-      <c r="BT4" s="74"/>
-      <c r="BU4" s="75"/>
-      <c r="BV4" s="73" t="str">
+      <c r="BP4" s="76"/>
+      <c r="BQ4" s="76"/>
+      <c r="BR4" s="76"/>
+      <c r="BS4" s="76"/>
+      <c r="BT4" s="76"/>
+      <c r="BU4" s="77"/>
+      <c r="BV4" s="75" t="str">
         <f>"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="BW4" s="74"/>
-      <c r="BX4" s="74"/>
-      <c r="BY4" s="74"/>
-      <c r="BZ4" s="74"/>
-      <c r="CA4" s="74"/>
-      <c r="CB4" s="75"/>
+      <c r="BW4" s="76"/>
+      <c r="BX4" s="76"/>
+      <c r="BY4" s="76"/>
+      <c r="BZ4" s="76"/>
+      <c r="CA4" s="76"/>
+      <c r="CB4" s="77"/>
     </row>
     <row r="5" spans="1:80" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
       <c r="B5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="48"/>
       <c r="G5" s="48"/>
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="76">
+      <c r="K5" s="79">
         <f>K6</f>
         <v>44662</v>
       </c>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="76">
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="79">
         <f>R6</f>
         <v>44669</v>
       </c>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="76">
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="81"/>
+      <c r="Y5" s="79">
         <f>Y6</f>
         <v>44676</v>
       </c>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="78"/>
-      <c r="AF5" s="76">
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="80"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="81"/>
+      <c r="AF5" s="79">
         <f>AF6</f>
         <v>44683</v>
       </c>
-      <c r="AG5" s="77"/>
-      <c r="AH5" s="77"/>
-      <c r="AI5" s="77"/>
-      <c r="AJ5" s="77"/>
-      <c r="AK5" s="77"/>
-      <c r="AL5" s="78"/>
-      <c r="AM5" s="76">
+      <c r="AG5" s="80"/>
+      <c r="AH5" s="80"/>
+      <c r="AI5" s="80"/>
+      <c r="AJ5" s="80"/>
+      <c r="AK5" s="80"/>
+      <c r="AL5" s="81"/>
+      <c r="AM5" s="79">
         <f>AM6</f>
         <v>44690</v>
       </c>
-      <c r="AN5" s="77"/>
-      <c r="AO5" s="77"/>
-      <c r="AP5" s="77"/>
-      <c r="AQ5" s="77"/>
-      <c r="AR5" s="77"/>
-      <c r="AS5" s="78"/>
-      <c r="AT5" s="76">
+      <c r="AN5" s="80"/>
+      <c r="AO5" s="80"/>
+      <c r="AP5" s="80"/>
+      <c r="AQ5" s="80"/>
+      <c r="AR5" s="80"/>
+      <c r="AS5" s="81"/>
+      <c r="AT5" s="79">
         <f>AT6</f>
         <v>44697</v>
       </c>
-      <c r="AU5" s="77"/>
-      <c r="AV5" s="77"/>
-      <c r="AW5" s="77"/>
-      <c r="AX5" s="77"/>
-      <c r="AY5" s="77"/>
-      <c r="AZ5" s="78"/>
-      <c r="BA5" s="76">
+      <c r="AU5" s="80"/>
+      <c r="AV5" s="80"/>
+      <c r="AW5" s="80"/>
+      <c r="AX5" s="80"/>
+      <c r="AY5" s="80"/>
+      <c r="AZ5" s="81"/>
+      <c r="BA5" s="79">
         <f>BA6</f>
         <v>44704</v>
       </c>
-      <c r="BB5" s="77"/>
-      <c r="BC5" s="77"/>
-      <c r="BD5" s="77"/>
-      <c r="BE5" s="77"/>
-      <c r="BF5" s="77"/>
-      <c r="BG5" s="78"/>
-      <c r="BH5" s="76">
+      <c r="BB5" s="80"/>
+      <c r="BC5" s="80"/>
+      <c r="BD5" s="80"/>
+      <c r="BE5" s="80"/>
+      <c r="BF5" s="80"/>
+      <c r="BG5" s="81"/>
+      <c r="BH5" s="79">
         <f>BH6</f>
         <v>44711</v>
       </c>
-      <c r="BI5" s="77"/>
-      <c r="BJ5" s="77"/>
-      <c r="BK5" s="77"/>
-      <c r="BL5" s="77"/>
-      <c r="BM5" s="77"/>
-      <c r="BN5" s="78"/>
-      <c r="BO5" s="76">
+      <c r="BI5" s="80"/>
+      <c r="BJ5" s="80"/>
+      <c r="BK5" s="80"/>
+      <c r="BL5" s="80"/>
+      <c r="BM5" s="80"/>
+      <c r="BN5" s="81"/>
+      <c r="BO5" s="79">
         <f>BO6</f>
         <v>44718</v>
       </c>
-      <c r="BP5" s="77"/>
-      <c r="BQ5" s="77"/>
-      <c r="BR5" s="77"/>
-      <c r="BS5" s="77"/>
-      <c r="BT5" s="77"/>
-      <c r="BU5" s="78"/>
-      <c r="BV5" s="76">
+      <c r="BP5" s="80"/>
+      <c r="BQ5" s="80"/>
+      <c r="BR5" s="80"/>
+      <c r="BS5" s="80"/>
+      <c r="BT5" s="80"/>
+      <c r="BU5" s="81"/>
+      <c r="BV5" s="79">
         <f>BV6</f>
         <v>44725</v>
       </c>
-      <c r="BW5" s="77"/>
-      <c r="BX5" s="77"/>
-      <c r="BY5" s="77"/>
-      <c r="BZ5" s="77"/>
-      <c r="CA5" s="77"/>
-      <c r="CB5" s="78"/>
+      <c r="BW5" s="80"/>
+      <c r="BX5" s="80"/>
+      <c r="BY5" s="80"/>
+      <c r="BZ5" s="80"/>
+      <c r="CA5" s="80"/>
+      <c r="CB5" s="81"/>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
@@ -2707,7 +2725,7 @@
         <v>44731</v>
       </c>
     </row>
-    <row r="7" spans="1:80" s="59" customFormat="1" ht="23.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:80" s="59" customFormat="1" ht="31.3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="51" t="s">
         <v>0</v>
       </c>
@@ -3033,7 +3051,7 @@
       <c r="G8" s="34"/>
       <c r="H8" s="35"/>
       <c r="I8" s="36" t="str">
-        <f t="shared" ref="I8:I30" si="20">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I31" si="20">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="39"/>
@@ -3124,8 +3142,8 @@
         <v>44670</v>
       </c>
       <c r="G9" s="25">
-        <f>_xlfn.DAYS(F9,E9)</f>
-        <v>9</v>
+        <f>_xlfn.DAYS(F9,E9)+1</f>
+        <v>10</v>
       </c>
       <c r="H9" s="26">
         <v>1</v>
@@ -3315,8 +3333,8 @@
         <v>44673</v>
       </c>
       <c r="G11" s="25">
-        <f>_xlfn.DAYS(F11,E11)</f>
-        <v>3</v>
+        <f>_xlfn.DAYS(F11,E11)+1</f>
+        <v>4</v>
       </c>
       <c r="H11" s="26">
         <v>1</v>
@@ -3413,8 +3431,8 @@
         <v>44676</v>
       </c>
       <c r="G12" s="25">
-        <f>_xlfn.DAYS(F12,E12)</f>
-        <v>3</v>
+        <f t="shared" ref="G12:G17" si="23">_xlfn.DAYS(F12,E12)+1</f>
+        <v>4</v>
       </c>
       <c r="H12" s="26">
         <v>1</v>
@@ -3511,8 +3529,8 @@
         <v>44680</v>
       </c>
       <c r="G13" s="25">
-        <f t="shared" ref="G13:G17" si="23">_xlfn.DAYS(F13,E13)</f>
-        <v>4</v>
+        <f t="shared" si="23"/>
+        <v>5</v>
       </c>
       <c r="H13" s="26">
         <v>1</v>
@@ -3610,7 +3628,7 @@
       </c>
       <c r="G14" s="25">
         <f t="shared" si="23"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H14" s="26">
         <v>1</v>
@@ -3708,7 +3726,7 @@
       </c>
       <c r="G15" s="25">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" s="26">
         <v>1</v>
@@ -3806,7 +3824,7 @@
       </c>
       <c r="G16" s="25">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H16" s="26">
         <v>1</v>
@@ -3904,7 +3922,7 @@
       </c>
       <c r="G17" s="25">
         <f t="shared" si="23"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H17" s="26">
         <v>1</v>
@@ -3996,7 +4014,7 @@
       <c r="D18" s="19"/>
       <c r="E18" s="70"/>
       <c r="F18" s="70" t="str">
-        <f t="shared" ref="F18:F29" si="24">IF(ISBLANK(E18)," - ",IF(G18=0,E18,E18+G18-1))</f>
+        <f t="shared" ref="F18:F30" si="24">IF(ISBLANK(E18)," - ",IF(G18=0,E18,E18+G18-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G18" s="20"/>
@@ -4079,7 +4097,7 @@
     </row>
     <row r="19" spans="1:80" s="24" customFormat="1" ht="115.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A19:A26" si="25">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
       <c r="B19" s="61" t="s">
@@ -4093,8 +4111,8 @@
         <v>44710</v>
       </c>
       <c r="G19" s="25">
-        <f>_xlfn.DAYS(F19,E19)</f>
-        <v>7</v>
+        <f>_xlfn.DAYS(F19,E19)+1</f>
+        <v>8</v>
       </c>
       <c r="H19" s="26">
         <v>1</v>
@@ -4177,7 +4195,7 @@
     </row>
     <row r="20" spans="1:80" s="24" customFormat="1" ht="147.44999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="25"/>
         <v>3.2</v>
       </c>
       <c r="B20" s="61" t="s">
@@ -4191,8 +4209,8 @@
         <v>44715</v>
       </c>
       <c r="G20" s="25">
-        <f t="shared" ref="G20:G25" si="25">_xlfn.DAYS(F20,E20)</f>
-        <v>5</v>
+        <f t="shared" ref="G20:G26" si="26">_xlfn.DAYS(F20,E20)+1</f>
+        <v>6</v>
       </c>
       <c r="H20" s="26">
         <v>1</v>
@@ -4275,7 +4293,7 @@
     </row>
     <row r="21" spans="1:80" s="24" customFormat="1" ht="115.75" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="25"/>
         <v>3.3</v>
       </c>
       <c r="B21" s="61" t="s">
@@ -4289,8 +4307,8 @@
         <v>44720</v>
       </c>
       <c r="G21" s="25">
-        <f t="shared" si="25"/>
-        <v>5</v>
+        <f t="shared" si="26"/>
+        <v>6</v>
       </c>
       <c r="H21" s="26">
         <v>1</v>
@@ -4373,7 +4391,7 @@
     </row>
     <row r="22" spans="1:80" s="24" customFormat="1" ht="188.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="25"/>
         <v>3.4</v>
       </c>
       <c r="B22" s="61" t="s">
@@ -4387,8 +4405,8 @@
         <v>44724</v>
       </c>
       <c r="G22" s="25">
-        <f t="shared" si="25"/>
-        <v>4</v>
+        <f t="shared" si="26"/>
+        <v>5</v>
       </c>
       <c r="H22" s="26">
         <v>1</v>
@@ -4471,7 +4489,7 @@
     </row>
     <row r="23" spans="1:80" s="24" customFormat="1" ht="109.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="25"/>
         <v>3.5</v>
       </c>
       <c r="B23" s="61" t="s">
@@ -4485,14 +4503,14 @@
         <v>44728</v>
       </c>
       <c r="G23" s="25">
-        <f t="shared" si="25"/>
-        <v>4</v>
+        <f t="shared" si="26"/>
+        <v>5</v>
       </c>
       <c r="H23" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="27">
-        <f t="shared" ref="I23:I24" si="26">IF(OR(F23=0,E23=0)," - ",NETWORKDAYS(E23,F23))</f>
+        <f t="shared" ref="I23:I24" si="27">IF(OR(F23=0,E23=0)," - ",NETWORKDAYS(E23,F23))</f>
         <v>4</v>
       </c>
       <c r="J23" s="40"/>
@@ -4569,7 +4587,7 @@
     </row>
     <row r="24" spans="1:80" s="24" customFormat="1" ht="104.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="25"/>
         <v>3.6</v>
       </c>
       <c r="B24" s="61" t="s">
@@ -4583,14 +4601,14 @@
         <v>44731</v>
       </c>
       <c r="G24" s="25">
-        <f t="shared" si="25"/>
-        <v>3</v>
+        <f t="shared" si="26"/>
+        <v>4</v>
       </c>
       <c r="H24" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="J24" s="40"/>
@@ -4667,7 +4685,7 @@
     </row>
     <row r="25" spans="1:80" s="24" customFormat="1" ht="85.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="25"/>
         <v>3.7</v>
       </c>
       <c r="B25" s="61" t="s">
@@ -4681,14 +4699,14 @@
         <v>44733</v>
       </c>
       <c r="G25" s="25">
-        <f t="shared" si="25"/>
-        <v>2</v>
+        <f t="shared" si="26"/>
+        <v>3</v>
       </c>
       <c r="H25" s="26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I25" s="27">
-        <f t="shared" ref="I25" si="27">IF(OR(F25=0,E25=0)," - ",NETWORKDAYS(E25,F25))</f>
+        <f t="shared" ref="I25:I26" si="28">IF(OR(F25=0,E25=0)," - ",NETWORKDAYS(E25,F25))</f>
         <v>2</v>
       </c>
       <c r="J25" s="40"/>
@@ -4763,221 +4781,221 @@
       <c r="CA25" s="43"/>
       <c r="CB25" s="43"/>
     </row>
-    <row r="26" spans="1:80" s="18" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="str">
+    <row r="26" spans="1:80" s="24" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23" t="str">
+        <f t="shared" si="25"/>
+        <v>3.8</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="82"/>
+      <c r="E26" s="83">
+        <v>44733</v>
+      </c>
+      <c r="F26" s="84">
+        <v>44734</v>
+      </c>
+      <c r="G26" s="25">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="H26" s="26">
+        <v>1</v>
+      </c>
+      <c r="I26" s="85">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="J26" s="86"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="43"/>
+      <c r="AB26" s="43"/>
+      <c r="AC26" s="43"/>
+      <c r="AD26" s="43"/>
+      <c r="AE26" s="43"/>
+      <c r="AF26" s="43"/>
+      <c r="AG26" s="43"/>
+      <c r="AH26" s="43"/>
+      <c r="AI26" s="43"/>
+      <c r="AJ26" s="43"/>
+      <c r="AK26" s="43"/>
+      <c r="AL26" s="43"/>
+      <c r="AM26" s="43"/>
+      <c r="AN26" s="43"/>
+      <c r="AO26" s="43"/>
+      <c r="AP26" s="43"/>
+      <c r="AQ26" s="43"/>
+      <c r="AR26" s="43"/>
+      <c r="AS26" s="43"/>
+      <c r="AT26" s="43"/>
+      <c r="AU26" s="43"/>
+      <c r="AV26" s="43"/>
+      <c r="AW26" s="43"/>
+      <c r="AX26" s="43"/>
+      <c r="AY26" s="43"/>
+      <c r="AZ26" s="43"/>
+      <c r="BA26" s="43"/>
+      <c r="BB26" s="43"/>
+      <c r="BC26" s="43"/>
+      <c r="BD26" s="43"/>
+      <c r="BE26" s="43"/>
+      <c r="BF26" s="43"/>
+      <c r="BG26" s="43"/>
+      <c r="BH26" s="43"/>
+      <c r="BI26" s="43"/>
+      <c r="BJ26" s="43"/>
+      <c r="BK26" s="43"/>
+      <c r="BL26" s="43"/>
+      <c r="BM26" s="43"/>
+      <c r="BN26" s="43"/>
+      <c r="BO26" s="43"/>
+      <c r="BP26" s="43"/>
+      <c r="BQ26" s="43"/>
+      <c r="BR26" s="43"/>
+      <c r="BS26" s="43"/>
+      <c r="BT26" s="43"/>
+      <c r="BU26" s="43"/>
+      <c r="BV26" s="43"/>
+      <c r="BW26" s="43"/>
+      <c r="BX26" s="43"/>
+      <c r="BY26" s="43"/>
+      <c r="BZ26" s="43"/>
+      <c r="CA26" s="43"/>
+      <c r="CB26" s="43"/>
+    </row>
+    <row r="27" spans="1:80" s="18" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B27" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70" t="str">
+      <c r="D27" s="19"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70" t="str">
         <f t="shared" si="24"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22" t="str">
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="22" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J26" s="41"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="44"/>
-      <c r="AF26" s="44"/>
-      <c r="AG26" s="44"/>
-      <c r="AH26" s="44"/>
-      <c r="AI26" s="44"/>
-      <c r="AJ26" s="44"/>
-      <c r="AK26" s="44"/>
-      <c r="AL26" s="44"/>
-      <c r="AM26" s="44"/>
-      <c r="AN26" s="44"/>
-      <c r="AO26" s="44"/>
-      <c r="AP26" s="44"/>
-      <c r="AQ26" s="44"/>
-      <c r="AR26" s="44"/>
-      <c r="AS26" s="44"/>
-      <c r="AT26" s="44"/>
-      <c r="AU26" s="44"/>
-      <c r="AV26" s="44"/>
-      <c r="AW26" s="44"/>
-      <c r="AX26" s="44"/>
-      <c r="AY26" s="44"/>
-      <c r="AZ26" s="44"/>
-      <c r="BA26" s="44"/>
-      <c r="BB26" s="44"/>
-      <c r="BC26" s="44"/>
-      <c r="BD26" s="44"/>
-      <c r="BE26" s="44"/>
-      <c r="BF26" s="44"/>
-      <c r="BG26" s="44"/>
-      <c r="BH26" s="44"/>
-      <c r="BI26" s="44"/>
-      <c r="BJ26" s="44"/>
-      <c r="BK26" s="44"/>
-      <c r="BL26" s="44"/>
-      <c r="BM26" s="44"/>
-      <c r="BN26" s="44"/>
-      <c r="BO26" s="44"/>
-      <c r="BP26" s="44"/>
-      <c r="BQ26" s="44"/>
-      <c r="BR26" s="44"/>
-      <c r="BS26" s="44"/>
-      <c r="BT26" s="44"/>
-      <c r="BU26" s="44"/>
-      <c r="BV26" s="44"/>
-      <c r="BW26" s="44"/>
-      <c r="BX26" s="44"/>
-      <c r="BY26" s="44"/>
-      <c r="BZ26" s="44"/>
-      <c r="CA26" s="44"/>
-      <c r="CB26" s="44"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="44"/>
+      <c r="AF27" s="44"/>
+      <c r="AG27" s="44"/>
+      <c r="AH27" s="44"/>
+      <c r="AI27" s="44"/>
+      <c r="AJ27" s="44"/>
+      <c r="AK27" s="44"/>
+      <c r="AL27" s="44"/>
+      <c r="AM27" s="44"/>
+      <c r="AN27" s="44"/>
+      <c r="AO27" s="44"/>
+      <c r="AP27" s="44"/>
+      <c r="AQ27" s="44"/>
+      <c r="AR27" s="44"/>
+      <c r="AS27" s="44"/>
+      <c r="AT27" s="44"/>
+      <c r="AU27" s="44"/>
+      <c r="AV27" s="44"/>
+      <c r="AW27" s="44"/>
+      <c r="AX27" s="44"/>
+      <c r="AY27" s="44"/>
+      <c r="AZ27" s="44"/>
+      <c r="BA27" s="44"/>
+      <c r="BB27" s="44"/>
+      <c r="BC27" s="44"/>
+      <c r="BD27" s="44"/>
+      <c r="BE27" s="44"/>
+      <c r="BF27" s="44"/>
+      <c r="BG27" s="44"/>
+      <c r="BH27" s="44"/>
+      <c r="BI27" s="44"/>
+      <c r="BJ27" s="44"/>
+      <c r="BK27" s="44"/>
+      <c r="BL27" s="44"/>
+      <c r="BM27" s="44"/>
+      <c r="BN27" s="44"/>
+      <c r="BO27" s="44"/>
+      <c r="BP27" s="44"/>
+      <c r="BQ27" s="44"/>
+      <c r="BR27" s="44"/>
+      <c r="BS27" s="44"/>
+      <c r="BT27" s="44"/>
+      <c r="BU27" s="44"/>
+      <c r="BV27" s="44"/>
+      <c r="BW27" s="44"/>
+      <c r="BX27" s="44"/>
+      <c r="BY27" s="44"/>
+      <c r="BZ27" s="44"/>
+      <c r="CA27" s="44"/>
+      <c r="CB27" s="44"/>
     </row>
-    <row r="27" spans="1:80" s="24" customFormat="1" ht="70.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="str">
+    <row r="28" spans="1:80" s="24" customFormat="1" ht="70.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B28" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="68">
+      <c r="D28" s="62"/>
+      <c r="E28" s="68">
         <v>44691</v>
       </c>
-      <c r="F27" s="71">
+      <c r="F28" s="71">
         <v>44733</v>
       </c>
-      <c r="G27" s="25">
-        <f>_xlfn.DAYS(F27,E27)</f>
-        <v>42</v>
-      </c>
-      <c r="H27" s="26">
+      <c r="G28" s="25">
+        <f>_xlfn.DAYS(F28,E28)+1</f>
+        <v>43</v>
+      </c>
+      <c r="H28" s="26">
         <v>1</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I28" s="27">
         <f t="shared" si="20"/>
         <v>31</v>
-      </c>
-      <c r="J27" s="40"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="43"/>
-      <c r="AA27" s="43"/>
-      <c r="AB27" s="43"/>
-      <c r="AC27" s="43"/>
-      <c r="AD27" s="43"/>
-      <c r="AE27" s="43"/>
-      <c r="AF27" s="43"/>
-      <c r="AG27" s="43"/>
-      <c r="AH27" s="43"/>
-      <c r="AI27" s="43"/>
-      <c r="AJ27" s="43"/>
-      <c r="AK27" s="43"/>
-      <c r="AL27" s="43"/>
-      <c r="AM27" s="43"/>
-      <c r="AN27" s="43"/>
-      <c r="AO27" s="43"/>
-      <c r="AP27" s="43"/>
-      <c r="AQ27" s="43"/>
-      <c r="AR27" s="43"/>
-      <c r="AS27" s="43"/>
-      <c r="AT27" s="43"/>
-      <c r="AU27" s="43"/>
-      <c r="AV27" s="43"/>
-      <c r="AW27" s="43"/>
-      <c r="AX27" s="43"/>
-      <c r="AY27" s="43"/>
-      <c r="AZ27" s="43"/>
-      <c r="BA27" s="43"/>
-      <c r="BB27" s="43"/>
-      <c r="BC27" s="43"/>
-      <c r="BD27" s="43"/>
-      <c r="BE27" s="43"/>
-      <c r="BF27" s="43"/>
-      <c r="BG27" s="43"/>
-      <c r="BH27" s="43"/>
-      <c r="BI27" s="43"/>
-      <c r="BJ27" s="43"/>
-      <c r="BK27" s="43"/>
-      <c r="BL27" s="43"/>
-      <c r="BM27" s="43"/>
-      <c r="BN27" s="43"/>
-      <c r="BO27" s="43"/>
-      <c r="BP27" s="43"/>
-      <c r="BQ27" s="43"/>
-      <c r="BR27" s="43"/>
-      <c r="BS27" s="43"/>
-      <c r="BT27" s="43"/>
-      <c r="BU27" s="43"/>
-      <c r="BV27" s="43"/>
-      <c r="BW27" s="43"/>
-      <c r="BX27" s="43"/>
-      <c r="BY27" s="43"/>
-      <c r="BZ27" s="43"/>
-      <c r="CA27" s="43"/>
-      <c r="CB27" s="43"/>
-    </row>
-    <row r="28" spans="1:80" s="24" customFormat="1" ht="37.299999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
-      </c>
-      <c r="B28" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="62"/>
-      <c r="E28" s="68">
-        <v>44733</v>
-      </c>
-      <c r="F28" s="71">
-        <v>44734</v>
-      </c>
-      <c r="G28" s="25">
-        <f>_xlfn.DAYS(F28,E28)</f>
-        <v>1</v>
-      </c>
-      <c r="H28" s="26">
-        <v>1</v>
-      </c>
-      <c r="I28" s="27">
-        <f t="shared" si="20"/>
-        <v>2</v>
       </c>
       <c r="J28" s="40"/>
       <c r="K28" s="43"/>
@@ -5051,221 +5069,221 @@
       <c r="CA28" s="43"/>
       <c r="CB28" s="43"/>
     </row>
-    <row r="29" spans="1:80" s="18" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="str">
+    <row r="29" spans="1:80" s="24" customFormat="1" ht="37.299999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.2</v>
+      </c>
+      <c r="B29" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="62"/>
+      <c r="E29" s="68">
+        <v>44733</v>
+      </c>
+      <c r="F29" s="71">
+        <v>44734</v>
+      </c>
+      <c r="G29" s="25">
+        <f>_xlfn.DAYS(F29,E29)+1</f>
+        <v>2</v>
+      </c>
+      <c r="H29" s="26">
+        <v>1</v>
+      </c>
+      <c r="I29" s="27">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="J29" s="40"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="43"/>
+      <c r="AB29" s="43"/>
+      <c r="AC29" s="43"/>
+      <c r="AD29" s="43"/>
+      <c r="AE29" s="43"/>
+      <c r="AF29" s="43"/>
+      <c r="AG29" s="43"/>
+      <c r="AH29" s="43"/>
+      <c r="AI29" s="43"/>
+      <c r="AJ29" s="43"/>
+      <c r="AK29" s="43"/>
+      <c r="AL29" s="43"/>
+      <c r="AM29" s="43"/>
+      <c r="AN29" s="43"/>
+      <c r="AO29" s="43"/>
+      <c r="AP29" s="43"/>
+      <c r="AQ29" s="43"/>
+      <c r="AR29" s="43"/>
+      <c r="AS29" s="43"/>
+      <c r="AT29" s="43"/>
+      <c r="AU29" s="43"/>
+      <c r="AV29" s="43"/>
+      <c r="AW29" s="43"/>
+      <c r="AX29" s="43"/>
+      <c r="AY29" s="43"/>
+      <c r="AZ29" s="43"/>
+      <c r="BA29" s="43"/>
+      <c r="BB29" s="43"/>
+      <c r="BC29" s="43"/>
+      <c r="BD29" s="43"/>
+      <c r="BE29" s="43"/>
+      <c r="BF29" s="43"/>
+      <c r="BG29" s="43"/>
+      <c r="BH29" s="43"/>
+      <c r="BI29" s="43"/>
+      <c r="BJ29" s="43"/>
+      <c r="BK29" s="43"/>
+      <c r="BL29" s="43"/>
+      <c r="BM29" s="43"/>
+      <c r="BN29" s="43"/>
+      <c r="BO29" s="43"/>
+      <c r="BP29" s="43"/>
+      <c r="BQ29" s="43"/>
+      <c r="BR29" s="43"/>
+      <c r="BS29" s="43"/>
+      <c r="BT29" s="43"/>
+      <c r="BU29" s="43"/>
+      <c r="BV29" s="43"/>
+      <c r="BW29" s="43"/>
+      <c r="BX29" s="43"/>
+      <c r="BY29" s="43"/>
+      <c r="BZ29" s="43"/>
+      <c r="CA29" s="43"/>
+      <c r="CB29" s="43"/>
+    </row>
+    <row r="30" spans="1:80" s="18" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>5</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B30" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70" t="str">
+      <c r="D30" s="19"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70" t="str">
         <f t="shared" si="24"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="22" t="str">
+      <c r="G30" s="20"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J29" s="41"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="44"/>
-      <c r="AA29" s="44"/>
-      <c r="AB29" s="44"/>
-      <c r="AC29" s="44"/>
-      <c r="AD29" s="44"/>
-      <c r="AE29" s="44"/>
-      <c r="AF29" s="44"/>
-      <c r="AG29" s="44"/>
-      <c r="AH29" s="44"/>
-      <c r="AI29" s="44"/>
-      <c r="AJ29" s="44"/>
-      <c r="AK29" s="44"/>
-      <c r="AL29" s="44"/>
-      <c r="AM29" s="44"/>
-      <c r="AN29" s="44"/>
-      <c r="AO29" s="44"/>
-      <c r="AP29" s="44"/>
-      <c r="AQ29" s="44"/>
-      <c r="AR29" s="44"/>
-      <c r="AS29" s="44"/>
-      <c r="AT29" s="44"/>
-      <c r="AU29" s="44"/>
-      <c r="AV29" s="44"/>
-      <c r="AW29" s="44"/>
-      <c r="AX29" s="44"/>
-      <c r="AY29" s="44"/>
-      <c r="AZ29" s="44"/>
-      <c r="BA29" s="44"/>
-      <c r="BB29" s="44"/>
-      <c r="BC29" s="44"/>
-      <c r="BD29" s="44"/>
-      <c r="BE29" s="44"/>
-      <c r="BF29" s="44"/>
-      <c r="BG29" s="44"/>
-      <c r="BH29" s="44"/>
-      <c r="BI29" s="44"/>
-      <c r="BJ29" s="44"/>
-      <c r="BK29" s="44"/>
-      <c r="BL29" s="44"/>
-      <c r="BM29" s="44"/>
-      <c r="BN29" s="44"/>
-      <c r="BO29" s="44"/>
-      <c r="BP29" s="44"/>
-      <c r="BQ29" s="44"/>
-      <c r="BR29" s="44"/>
-      <c r="BS29" s="44"/>
-      <c r="BT29" s="44"/>
-      <c r="BU29" s="44"/>
-      <c r="BV29" s="44"/>
-      <c r="BW29" s="44"/>
-      <c r="BX29" s="44"/>
-      <c r="BY29" s="44"/>
-      <c r="BZ29" s="44"/>
-      <c r="CA29" s="44"/>
-      <c r="CB29" s="44"/>
-    </row>
-    <row r="30" spans="1:80" s="24" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A30" s="23" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.1</v>
-      </c>
-      <c r="B30" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="62"/>
-      <c r="E30" s="68">
-        <v>44661</v>
-      </c>
-      <c r="F30" s="71">
-        <v>44733</v>
-      </c>
-      <c r="G30" s="25">
-        <f>_xlfn.DAYS(F30,E30)</f>
-        <v>72</v>
-      </c>
-      <c r="H30" s="26">
-        <v>1</v>
-      </c>
-      <c r="I30" s="27">
-        <f t="shared" si="20"/>
-        <v>52</v>
-      </c>
-      <c r="J30" s="40"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="43"/>
-      <c r="AA30" s="43"/>
-      <c r="AB30" s="43"/>
-      <c r="AC30" s="43"/>
-      <c r="AD30" s="43"/>
-      <c r="AE30" s="43"/>
-      <c r="AF30" s="43"/>
-      <c r="AG30" s="43"/>
-      <c r="AH30" s="43"/>
-      <c r="AI30" s="43"/>
-      <c r="AJ30" s="43"/>
-      <c r="AK30" s="43"/>
-      <c r="AL30" s="43"/>
-      <c r="AM30" s="43"/>
-      <c r="AN30" s="43"/>
-      <c r="AO30" s="43"/>
-      <c r="AP30" s="43"/>
-      <c r="AQ30" s="43"/>
-      <c r="AR30" s="43"/>
-      <c r="AS30" s="43"/>
-      <c r="AT30" s="43"/>
-      <c r="AU30" s="43"/>
-      <c r="AV30" s="43"/>
-      <c r="AW30" s="43"/>
-      <c r="AX30" s="43"/>
-      <c r="AY30" s="43"/>
-      <c r="AZ30" s="43"/>
-      <c r="BA30" s="43"/>
-      <c r="BB30" s="43"/>
-      <c r="BC30" s="43"/>
-      <c r="BD30" s="43"/>
-      <c r="BE30" s="43"/>
-      <c r="BF30" s="43"/>
-      <c r="BG30" s="43"/>
-      <c r="BH30" s="43"/>
-      <c r="BI30" s="43"/>
-      <c r="BJ30" s="43"/>
-      <c r="BK30" s="43"/>
-      <c r="BL30" s="43"/>
-      <c r="BM30" s="43"/>
-      <c r="BN30" s="43"/>
-      <c r="BO30" s="43"/>
-      <c r="BP30" s="43"/>
-      <c r="BQ30" s="43"/>
-      <c r="BR30" s="43"/>
-      <c r="BS30" s="43"/>
-      <c r="BT30" s="43"/>
-      <c r="BU30" s="43"/>
-      <c r="BV30" s="43"/>
-      <c r="BW30" s="43"/>
-      <c r="BX30" s="43"/>
-      <c r="BY30" s="43"/>
-      <c r="BZ30" s="43"/>
-      <c r="CA30" s="43"/>
-      <c r="CB30" s="43"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="44"/>
+      <c r="Z30" s="44"/>
+      <c r="AA30" s="44"/>
+      <c r="AB30" s="44"/>
+      <c r="AC30" s="44"/>
+      <c r="AD30" s="44"/>
+      <c r="AE30" s="44"/>
+      <c r="AF30" s="44"/>
+      <c r="AG30" s="44"/>
+      <c r="AH30" s="44"/>
+      <c r="AI30" s="44"/>
+      <c r="AJ30" s="44"/>
+      <c r="AK30" s="44"/>
+      <c r="AL30" s="44"/>
+      <c r="AM30" s="44"/>
+      <c r="AN30" s="44"/>
+      <c r="AO30" s="44"/>
+      <c r="AP30" s="44"/>
+      <c r="AQ30" s="44"/>
+      <c r="AR30" s="44"/>
+      <c r="AS30" s="44"/>
+      <c r="AT30" s="44"/>
+      <c r="AU30" s="44"/>
+      <c r="AV30" s="44"/>
+      <c r="AW30" s="44"/>
+      <c r="AX30" s="44"/>
+      <c r="AY30" s="44"/>
+      <c r="AZ30" s="44"/>
+      <c r="BA30" s="44"/>
+      <c r="BB30" s="44"/>
+      <c r="BC30" s="44"/>
+      <c r="BD30" s="44"/>
+      <c r="BE30" s="44"/>
+      <c r="BF30" s="44"/>
+      <c r="BG30" s="44"/>
+      <c r="BH30" s="44"/>
+      <c r="BI30" s="44"/>
+      <c r="BJ30" s="44"/>
+      <c r="BK30" s="44"/>
+      <c r="BL30" s="44"/>
+      <c r="BM30" s="44"/>
+      <c r="BN30" s="44"/>
+      <c r="BO30" s="44"/>
+      <c r="BP30" s="44"/>
+      <c r="BQ30" s="44"/>
+      <c r="BR30" s="44"/>
+      <c r="BS30" s="44"/>
+      <c r="BT30" s="44"/>
+      <c r="BU30" s="44"/>
+      <c r="BV30" s="44"/>
+      <c r="BW30" s="44"/>
+      <c r="BX30" s="44"/>
+      <c r="BY30" s="44"/>
+      <c r="BZ30" s="44"/>
+      <c r="CA30" s="44"/>
+      <c r="CB30" s="44"/>
     </row>
     <row r="31" spans="1:80" s="24" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" s="62"/>
       <c r="E31" s="68">
-        <v>44729</v>
+        <v>44661</v>
       </c>
       <c r="F31" s="71">
         <v>44733</v>
       </c>
       <c r="G31" s="25">
-        <f>_xlfn.DAYS(F31,E31)</f>
-        <v>4</v>
+        <f>_xlfn.DAYS(F31,E31)+1</f>
+        <v>73</v>
       </c>
       <c r="H31" s="26">
         <v>1</v>
       </c>
       <c r="I31" s="27">
-        <f t="shared" ref="I31" si="28">IF(OR(F31=0,E31=0)," - ",NETWORKDAYS(E31,F31))</f>
-        <v>3</v>
+        <f t="shared" si="20"/>
+        <v>52</v>
       </c>
       <c r="J31" s="40"/>
       <c r="K31" s="43"/>
@@ -5339,18 +5357,107 @@
       <c r="CA31" s="43"/>
       <c r="CB31" s="43"/>
     </row>
+    <row r="32" spans="1:80" s="24" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A32" s="23" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.2</v>
+      </c>
+      <c r="B32" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="62"/>
+      <c r="E32" s="68">
+        <v>44729</v>
+      </c>
+      <c r="F32" s="71">
+        <v>44733</v>
+      </c>
+      <c r="G32" s="25">
+        <f>_xlfn.DAYS(F32,E32)+1</f>
+        <v>5</v>
+      </c>
+      <c r="H32" s="26">
+        <v>1</v>
+      </c>
+      <c r="I32" s="27">
+        <f t="shared" ref="I32" si="29">IF(OR(F32=0,E32=0)," - ",NETWORKDAYS(E32,F32))</f>
+        <v>3</v>
+      </c>
+      <c r="J32" s="40"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="43"/>
+      <c r="AA32" s="43"/>
+      <c r="AB32" s="43"/>
+      <c r="AC32" s="43"/>
+      <c r="AD32" s="43"/>
+      <c r="AE32" s="43"/>
+      <c r="AF32" s="43"/>
+      <c r="AG32" s="43"/>
+      <c r="AH32" s="43"/>
+      <c r="AI32" s="43"/>
+      <c r="AJ32" s="43"/>
+      <c r="AK32" s="43"/>
+      <c r="AL32" s="43"/>
+      <c r="AM32" s="43"/>
+      <c r="AN32" s="43"/>
+      <c r="AO32" s="43"/>
+      <c r="AP32" s="43"/>
+      <c r="AQ32" s="43"/>
+      <c r="AR32" s="43"/>
+      <c r="AS32" s="43"/>
+      <c r="AT32" s="43"/>
+      <c r="AU32" s="43"/>
+      <c r="AV32" s="43"/>
+      <c r="AW32" s="43"/>
+      <c r="AX32" s="43"/>
+      <c r="AY32" s="43"/>
+      <c r="AZ32" s="43"/>
+      <c r="BA32" s="43"/>
+      <c r="BB32" s="43"/>
+      <c r="BC32" s="43"/>
+      <c r="BD32" s="43"/>
+      <c r="BE32" s="43"/>
+      <c r="BF32" s="43"/>
+      <c r="BG32" s="43"/>
+      <c r="BH32" s="43"/>
+      <c r="BI32" s="43"/>
+      <c r="BJ32" s="43"/>
+      <c r="BK32" s="43"/>
+      <c r="BL32" s="43"/>
+      <c r="BM32" s="43"/>
+      <c r="BN32" s="43"/>
+      <c r="BO32" s="43"/>
+      <c r="BP32" s="43"/>
+      <c r="BQ32" s="43"/>
+      <c r="BR32" s="43"/>
+      <c r="BS32" s="43"/>
+      <c r="BT32" s="43"/>
+      <c r="BU32" s="43"/>
+      <c r="BV32" s="43"/>
+      <c r="BW32" s="43"/>
+      <c r="BX32" s="43"/>
+      <c r="BY32" s="43"/>
+      <c r="BZ32" s="43"/>
+      <c r="CA32" s="43"/>
+      <c r="CB32" s="43"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="23">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="BO4:BU4"/>
     <mergeCell ref="BO5:BU5"/>
     <mergeCell ref="BV4:CB4"/>
@@ -5365,9 +5472,18 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H9 H17:H31 H11:H14">
+  <conditionalFormatting sqref="H8:H9 H11:H14 H17:H32">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5386,7 +5502,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:CB31">
+  <conditionalFormatting sqref="K8:CB32">
     <cfRule type="expression" dxfId="4" priority="56">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
@@ -5394,7 +5510,7 @@
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:CB9 K17:CB31 K11:CB14">
+  <conditionalFormatting sqref="K6:CB9 K17:CB32 K11:CB14">
     <cfRule type="expression" dxfId="2" priority="16">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -5444,8 +5560,8 @@
   <pageSetup paperSize="8" scale="96" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 E18 E26 E29 G18:H18 G26:H26 G29:H29" unlockedFormula="1"/>
-    <ignoredError sqref="A29 A26 A18" formula="1"/>
+    <ignoredError sqref="H9 E18 E27 E30 G18:H18 G27:H27 G30:H30" unlockedFormula="1"/>
+    <ignoredError sqref="A30 A27 A18" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -5493,7 +5609,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H9 H17:H31 H11:H14</xm:sqref>
+          <xm:sqref>H8:H9 H11:H14 H17:H32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{39040515-52F3-4094-B202-ACD1080964D7}">
